--- a/src/attributions/attributions_saliency_traj_48.xlsx
+++ b/src/attributions/attributions_saliency_traj_48.xlsx
@@ -1004,4554 +1004,4554 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.05617770180106163</v>
+        <v>0.02700064331293106</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2524121701717377</v>
+        <v>2.026433706283569</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01004337146878242</v>
+        <v>0.181880995631218</v>
       </c>
       <c r="D2" t="n">
-        <v>0.05056779086589813</v>
+        <v>0.5965989232063293</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02974394708871841</v>
+        <v>0.1492627561092377</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1894114464521408</v>
+        <v>0.1508157551288605</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05414952710270882</v>
+        <v>0.02083630487322807</v>
       </c>
       <c r="H2" t="n">
-        <v>0.147939532995224</v>
+        <v>0.1804770827293396</v>
       </c>
       <c r="I2" t="n">
-        <v>0.06941384822130203</v>
+        <v>0.1701282411813736</v>
       </c>
       <c r="J2" t="n">
-        <v>0.05656676739454269</v>
+        <v>0.1448343396186829</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1569723039865494</v>
+        <v>1.820294737815857</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04305194690823555</v>
+        <v>0.02294778451323509</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0653764083981514</v>
+        <v>0.6075779795646667</v>
       </c>
       <c r="N2" t="n">
-        <v>0.04320181161165237</v>
+        <v>0.06437333673238754</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1914389133453369</v>
+        <v>0.003822792321443558</v>
       </c>
       <c r="P2" t="n">
-        <v>0.07484973967075348</v>
+        <v>0.1918817907571793</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.2334753274917603</v>
+        <v>0.1680320650339127</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1622648388147354</v>
+        <v>0.01325422339141369</v>
       </c>
       <c r="S2" t="n">
-        <v>0.01217468082904816</v>
+        <v>0.08419504761695862</v>
       </c>
       <c r="T2" t="n">
-        <v>0.02402626164257526</v>
+        <v>0.1467688977718353</v>
       </c>
       <c r="U2" t="n">
-        <v>0.04095406830310822</v>
+        <v>0.05610385537147522</v>
       </c>
       <c r="V2" t="n">
-        <v>0.07386002689599991</v>
+        <v>0.02518838457763195</v>
       </c>
       <c r="W2" t="n">
-        <v>0.05188082158565521</v>
+        <v>0.09393763542175293</v>
       </c>
       <c r="X2" t="n">
-        <v>0.06173081696033478</v>
+        <v>0.02200545370578766</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.03677806258201599</v>
+        <v>0.008412579074501991</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.08327782899141312</v>
+        <v>0.1509860306978226</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.01191793847829103</v>
+        <v>0.1145055890083313</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.00375811755657196</v>
+        <v>0.1736255437135696</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.0004985234700143337</v>
+        <v>0.1751899123191833</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.05419733747839928</v>
+        <v>0.1903137564659119</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.005109630525112152</v>
+        <v>0.1101312860846519</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.1152187064290047</v>
+        <v>0.2272079885005951</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.1179259046912193</v>
+        <v>0.07013751566410065</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.02446548826992512</v>
+        <v>0.06336215138435364</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.03021382167935371</v>
+        <v>0.03781323879957199</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.03161077573895454</v>
+        <v>0.0438944399356842</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.01098727062344551</v>
+        <v>0.1875645816326141</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.03761696815490723</v>
+        <v>0.2146672904491425</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.06724731624126434</v>
+        <v>0.03695892170071602</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.06363266706466675</v>
+        <v>0.1230772286653519</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.03211162984371185</v>
+        <v>0.01602835580706596</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.05491972714662552</v>
+        <v>0.2412279844284058</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.005289065185934305</v>
+        <v>0.06237630173563957</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.003520790487527847</v>
+        <v>0.01816698163747787</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.01990359462797642</v>
+        <v>0.07031316310167313</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.04368700832128525</v>
+        <v>0.06125390529632568</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.07703892141580582</v>
+        <v>1.165971875190735</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.03325806558132172</v>
+        <v>0.1943285167217255</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.0604858510196209</v>
+        <v>0.07680662721395493</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.02625881507992744</v>
+        <v>0.1914479434490204</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.04885250329971313</v>
+        <v>0.06199268624186516</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.03564070910215378</v>
+        <v>0.1927660703659058</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.05162163823843002</v>
+        <v>0.01415245234966278</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.02863745391368866</v>
+        <v>0.02604504302144051</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.03002435900270939</v>
+        <v>0.07629263401031494</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.08192281424999237</v>
+        <v>0.5025010704994202</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.05032997205853462</v>
+        <v>0.3191011548042297</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.04196219891309738</v>
+        <v>0.05245956778526306</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.04492412135004997</v>
+        <v>0.3685872554779053</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.0813647136092186</v>
+        <v>0.175722748041153</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.08769460022449493</v>
+        <v>0.3471634984016418</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.01703971996903419</v>
+        <v>0.01600923947989941</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.01110925897955894</v>
+        <v>0.1818774491548538</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.01991455629467964</v>
+        <v>0.1732466816902161</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.01721581444144249</v>
+        <v>0.3081284463405609</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.02653272449970245</v>
+        <v>0.08336557447910309</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.04394679889082909</v>
+        <v>0.06294035911560059</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.01088199391961098</v>
+        <v>0.1183086633682251</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.06068572402000427</v>
+        <v>0.1174024194478989</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.05812375992536545</v>
+        <v>0.08712656050920486</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.1251515448093414</v>
+        <v>0.1771948933601379</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.02971518225967884</v>
+        <v>0.1378128528594971</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.08757704496383667</v>
+        <v>0.158131942152977</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.02619564905762672</v>
+        <v>0.538983166217804</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.01722465828061104</v>
+        <v>0.08015596121549606</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.04415713623166084</v>
+        <v>0.03311271220445633</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.1092241629958153</v>
+        <v>0.2709693014621735</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.1720545142889023</v>
+        <v>0.009194145910441875</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.0580008327960968</v>
+        <v>0.2345306724309921</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.01860073208808899</v>
+        <v>0.04682347923517227</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.0622343122959137</v>
+        <v>0.004482446238398552</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.005600572563707829</v>
+        <v>0.07665994018316269</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.02241687476634979</v>
+        <v>0.2860150039196014</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.001590910833328962</v>
+        <v>0.04936785995960236</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.02675521746277809</v>
+        <v>0.0953960046172142</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.02645657025277615</v>
+        <v>0.05922602862119675</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.03428942710161209</v>
+        <v>0.02224475890398026</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.02373459935188293</v>
+        <v>0.07980690151453018</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.05374373495578766</v>
+        <v>0.06721258908510208</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.0270419716835022</v>
+        <v>0.07985136657953262</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.04158791899681091</v>
+        <v>0.3088224232196808</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.01301453448832035</v>
+        <v>0.04946726188063622</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.01967586204409599</v>
+        <v>0.008221706375479698</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.05583446472883224</v>
+        <v>0.3468421101570129</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.01289781183004379</v>
+        <v>0.318286120891571</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.09840940684080124</v>
+        <v>0.4138202369213104</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.05964056402444839</v>
+        <v>0.005961638875305653</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.01753759942948818</v>
+        <v>0.03068871051073074</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.0838167667388916</v>
+        <v>0.03362168744206429</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.01239852234721184</v>
+        <v>0.03595437481999397</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.03196413069963455</v>
+        <v>0.3247509300708771</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.009826270863413811</v>
+        <v>0.09678984433412552</v>
       </c>
       <c r="CY2" t="n">
-        <v>9.820237755775452e-05</v>
+        <v>0.1448343843221664</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.02566887065768242</v>
+        <v>0.06534954905509949</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.04264910891652107</v>
+        <v>0.01425307430326939</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.01598545908927917</v>
+        <v>0.06594337522983551</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.05764853581786156</v>
+        <v>0.05097950994968414</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.03315345570445061</v>
+        <v>0.07166257500648499</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.02627383731305599</v>
+        <v>0.2689231038093567</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.04582548886537552</v>
+        <v>0.1473855525255203</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.0226765088737011</v>
+        <v>0.3111849427223206</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.08013781905174255</v>
+        <v>0.1546645164489746</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.1880710870027542</v>
+        <v>0.01180284470319748</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.01823300868272781</v>
+        <v>0.04728046804666519</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.1145990490913391</v>
+        <v>0.2910924553871155</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.05076111853122711</v>
+        <v>0.2979274988174438</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.01044493727385998</v>
+        <v>0.1661643832921982</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.09393250942230225</v>
+        <v>0.02933092415332794</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.0777609720826149</v>
+        <v>0.07835200428962708</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.01039524376392365</v>
+        <v>0.3087720572948456</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.0489637553691864</v>
+        <v>0.07252009212970734</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.008536873385310173</v>
+        <v>0.3184369802474976</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.01609434559941292</v>
+        <v>0.02988570183515549</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.03213651478290558</v>
+        <v>0.1536430418491364</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.07369700819253922</v>
+        <v>0.03207774460315704</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.1082161888480186</v>
+        <v>0.03605005145072937</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.0343596488237381</v>
+        <v>0.01723796129226685</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.008495640009641647</v>
+        <v>0.01087840646505356</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.02977081388235092</v>
+        <v>0.08683542907238007</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.01179123017936945</v>
+        <v>0.07505637407302856</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.05032104626297951</v>
+        <v>0.06737493723630905</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.002299755811691284</v>
+        <v>0.3332350850105286</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.02850028686225414</v>
+        <v>0.1147137209773064</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.007323388941586018</v>
+        <v>0.1469890773296356</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.04387457296252251</v>
+        <v>0.01831423863768578</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.006221331190317869</v>
+        <v>0.06577171385288239</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.05636506527662277</v>
+        <v>0.3916946947574615</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.02281523682177067</v>
+        <v>0.242209181189537</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.03912812098860741</v>
+        <v>0.1183848083019257</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.02471543848514557</v>
+        <v>0.2358478903770447</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.09777051955461502</v>
+        <v>0.1879171431064606</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.01305804122239351</v>
+        <v>0.1469112932682037</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.04840133711695671</v>
+        <v>0.1087877005338669</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.00452006421983242</v>
+        <v>0.02678228728473186</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.0474097952246666</v>
+        <v>0.05498507991433144</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.04131386056542397</v>
+        <v>0.2733538448810577</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.005393038038164377</v>
+        <v>0.1614741533994675</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.009742537513375282</v>
+        <v>0.2115796059370041</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.008346481248736382</v>
+        <v>0.1098179221153259</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.1194353923201561</v>
+        <v>0.2239401042461395</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.05583212524652481</v>
+        <v>0.02801873907446861</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.1487632691860199</v>
+        <v>0.193395659327507</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.01753567159175873</v>
+        <v>0.05063141882419586</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.02594588696956635</v>
+        <v>0.003016900271177292</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.02419335208833218</v>
+        <v>0.346613734960556</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.01336465869098902</v>
+        <v>0.03170158714056015</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.0005057603120803833</v>
+        <v>0.1061612740159035</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.01897796243429184</v>
+        <v>0.1227941140532494</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.03218619152903557</v>
+        <v>0.0007681120187044144</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.03503817319869995</v>
+        <v>0.07659439742565155</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.06801910698413849</v>
+        <v>0.01994592510163784</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.03382144123315811</v>
+        <v>0.08235947042703629</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.002391605405136943</v>
+        <v>0.1644392907619476</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.08486072719097137</v>
+        <v>0.1362970173358917</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.0006391899660229683</v>
+        <v>0.01085962634533644</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.01109403371810913</v>
+        <v>0.1431986689567566</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.0006543770432472229</v>
+        <v>0.0733979195356369</v>
       </c>
       <c r="FL2" t="n">
-        <v>0.08887124061584473</v>
+        <v>0.00331459566950798</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.002812514081597328</v>
+        <v>0.03909692168235779</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.08710293471813202</v>
+        <v>0.01493695098906755</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.02880416065454483</v>
+        <v>0.1245128586888313</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.09272576868534088</v>
+        <v>0.1035105586051941</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.06237764656543732</v>
+        <v>0.5205629467964172</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.02727041579782963</v>
+        <v>0.2771345973014832</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.04119756445288658</v>
+        <v>0.2303733378648758</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.02088732272386551</v>
+        <v>0.3569082021713257</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.04847875609993935</v>
+        <v>0.145762637257576</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.01486331038177013</v>
+        <v>0.06095581874251366</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.03343747183680534</v>
+        <v>0.002598527818918228</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.0189161729067564</v>
+        <v>0.08099628984928131</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.05501091480255127</v>
+        <v>0.1036349311470985</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.0003733467310667038</v>
+        <v>0.2226179987192154</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.05739762261509895</v>
+        <v>0.1094188839197159</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.03288690373301506</v>
+        <v>0.08719689399003983</v>
       </c>
       <c r="GC2" t="n">
-        <v>0.01961905509233475</v>
+        <v>0.2078655958175659</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.06472738832235336</v>
+        <v>0.077785424888134</v>
       </c>
       <c r="GE2" t="n">
-        <v>0.08393454551696777</v>
+        <v>0.3956311941146851</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.111484557390213</v>
+        <v>0.2172351777553558</v>
       </c>
       <c r="GG2" t="n">
-        <v>0.04906873404979706</v>
+        <v>0.08471106737852097</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.02417038567364216</v>
+        <v>0.09798527508974075</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6762625575065613</v>
+        <v>1.272268533706665</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3816932141780853</v>
+        <v>0.3306261599063873</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3966782093048096</v>
+        <v>0.08575739711523056</v>
       </c>
       <c r="E3" t="n">
-        <v>0.08060851693153381</v>
+        <v>0.1755978465080261</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2694395780563354</v>
+        <v>1.207515239715576</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3201069235801697</v>
+        <v>0.1573558449745178</v>
       </c>
       <c r="H3" t="n">
-        <v>0.04447656124830246</v>
+        <v>0.3948677182197571</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01180871948599815</v>
+        <v>0.3157405853271484</v>
       </c>
       <c r="J3" t="n">
-        <v>0.06898052990436554</v>
+        <v>0.2861591875553131</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4546433389186859</v>
+        <v>0.8592574000358582</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2715692818164825</v>
+        <v>0.3577253818511963</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1045550107955933</v>
+        <v>0.3107835054397583</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1820575594902039</v>
+        <v>0.3777591586112976</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1462026536464691</v>
+        <v>1.080671787261963</v>
       </c>
       <c r="P3" t="n">
-        <v>0.3288677632808685</v>
+        <v>0.04782720655202866</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.02772376127541065</v>
+        <v>0.2527728676795959</v>
       </c>
       <c r="R3" t="n">
-        <v>0.07059807330369949</v>
+        <v>0.2235722094774246</v>
       </c>
       <c r="S3" t="n">
-        <v>0.08169510215520859</v>
+        <v>0.08895159512758255</v>
       </c>
       <c r="T3" t="n">
-        <v>0.02147794328629971</v>
+        <v>0.1070257425308228</v>
       </c>
       <c r="U3" t="n">
-        <v>0.02287696115672588</v>
+        <v>0.1414720714092255</v>
       </c>
       <c r="V3" t="n">
-        <v>0.1927832961082458</v>
+        <v>0.1071469634771347</v>
       </c>
       <c r="W3" t="n">
-        <v>0.123164065182209</v>
+        <v>0.2165742218494415</v>
       </c>
       <c r="X3" t="n">
-        <v>0.02772035077214241</v>
+        <v>0.0366017259657383</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1316239684820175</v>
+        <v>0.06241195276379585</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.007473687641322613</v>
+        <v>0.1914330124855042</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.05347607657313347</v>
+        <v>0.0150153636932373</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.02868863940238953</v>
+        <v>0.03446192294359207</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.06762249767780304</v>
+        <v>0.1541349738836288</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.06304802000522614</v>
+        <v>0.1077482104301453</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.1936735510826111</v>
+        <v>0.1655958741903305</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.1420820951461792</v>
+        <v>0.07933051884174347</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.003240239806473255</v>
+        <v>0.1100477874279022</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.01085184887051582</v>
+        <v>0.2402697801589966</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.1009799093008041</v>
+        <v>0.1955146193504333</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.04898887872695923</v>
+        <v>0.09326191991567612</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.1209831908345222</v>
+        <v>0.2704332768917084</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.1478565782308578</v>
+        <v>0.06597770005464554</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.006720347329974174</v>
+        <v>0.08120596408843994</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.03371277078986168</v>
+        <v>0.1163923889398575</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.01994707249104977</v>
+        <v>0.01383645087480545</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.06672661751508713</v>
+        <v>0.2336853742599487</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.02137658186256886</v>
+        <v>0.02571097388863564</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.0453682616353035</v>
+        <v>0.1047737151384354</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.1239383071660995</v>
+        <v>0.09027370065450668</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.2880824208259583</v>
+        <v>0.112996019423008</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.1941157579421997</v>
+        <v>1.028940081596375</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.1302821785211563</v>
+        <v>0.000773254781961441</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.4346031844615936</v>
+        <v>0.2392262518405914</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.1137905642390251</v>
+        <v>0.3250800669193268</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.0766945406794548</v>
+        <v>0.5600743293762207</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.1365107893943787</v>
+        <v>0.3731353282928467</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.1955366879701614</v>
+        <v>0.2546351253986359</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.08058314770460129</v>
+        <v>0.2779864966869354</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.1994420886039734</v>
+        <v>0.08303403109312057</v>
       </c>
       <c r="BD3" t="n">
-        <v>0.05621398612856865</v>
+        <v>0.1758837103843689</v>
       </c>
       <c r="BE3" t="n">
-        <v>0.03598500043153763</v>
+        <v>0.3453762233257294</v>
       </c>
       <c r="BF3" t="n">
-        <v>0.03161849081516266</v>
+        <v>0.2026161551475525</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.1183098554611206</v>
+        <v>0.0859312042593956</v>
       </c>
       <c r="BH3" t="n">
-        <v>0.1297882199287415</v>
+        <v>0.2821502089500427</v>
       </c>
       <c r="BI3" t="n">
-        <v>0.3711655735969543</v>
+        <v>0.005679577589035034</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0.1385623812675476</v>
+        <v>0.02216804772615433</v>
       </c>
       <c r="BK3" t="n">
-        <v>0.01640850491821766</v>
+        <v>0.06182769313454628</v>
       </c>
       <c r="BL3" t="n">
-        <v>0.05760238319635391</v>
+        <v>0.01976708136498928</v>
       </c>
       <c r="BM3" t="n">
-        <v>0.05481729283928871</v>
+        <v>0.2714299857616425</v>
       </c>
       <c r="BN3" t="n">
-        <v>0.06456013768911362</v>
+        <v>0.07244762778282166</v>
       </c>
       <c r="BO3" t="n">
-        <v>0.1192712187767029</v>
+        <v>0.1322334855794907</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.06406746804714203</v>
+        <v>0.0537765845656395</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0.04840072989463806</v>
+        <v>0.1844683140516281</v>
       </c>
       <c r="BR3" t="n">
-        <v>0.01906987838447094</v>
+        <v>0.07663018256425858</v>
       </c>
       <c r="BS3" t="n">
-        <v>0.02776521816849709</v>
+        <v>0.0688922330737114</v>
       </c>
       <c r="BT3" t="n">
-        <v>0.03703966736793518</v>
+        <v>0.02130390703678131</v>
       </c>
       <c r="BU3" t="n">
-        <v>0.3098897039890289</v>
+        <v>0.003190189599990845</v>
       </c>
       <c r="BV3" t="n">
-        <v>0.2082126587629318</v>
+        <v>0.430285781621933</v>
       </c>
       <c r="BW3" t="n">
-        <v>0.02672335505485535</v>
+        <v>0.2092641294002533</v>
       </c>
       <c r="BX3" t="n">
-        <v>0.08386099338531494</v>
+        <v>0.1409824788570404</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.1744431257247925</v>
+        <v>0.2083959132432938</v>
       </c>
       <c r="BZ3" t="n">
-        <v>0.02855592593550682</v>
+        <v>0.2529737949371338</v>
       </c>
       <c r="CA3" t="n">
-        <v>0.0614844523370266</v>
+        <v>0.005505051463842392</v>
       </c>
       <c r="CB3" t="n">
-        <v>0.03849365934729576</v>
+        <v>0.005248554050922394</v>
       </c>
       <c r="CC3" t="n">
-        <v>0.0432121679186821</v>
+        <v>0.01519861444830894</v>
       </c>
       <c r="CD3" t="n">
-        <v>0.04566457122564316</v>
+        <v>0.009368140250444412</v>
       </c>
       <c r="CE3" t="n">
-        <v>0.08836805820465088</v>
+        <v>0.1381943374872208</v>
       </c>
       <c r="CF3" t="n">
-        <v>0.07224894315004349</v>
+        <v>0.08972931653261185</v>
       </c>
       <c r="CG3" t="n">
-        <v>0.1471262276172638</v>
+        <v>0.01674927957355976</v>
       </c>
       <c r="CH3" t="n">
-        <v>0.05938778445124626</v>
+        <v>0.1179402247071266</v>
       </c>
       <c r="CI3" t="n">
-        <v>0.04364855587482452</v>
+        <v>0.2284864038228989</v>
       </c>
       <c r="CJ3" t="n">
-        <v>0.03833646327257156</v>
+        <v>0.02007085084915161</v>
       </c>
       <c r="CK3" t="n">
-        <v>0.06331523507833481</v>
+        <v>0.1478026509284973</v>
       </c>
       <c r="CL3" t="n">
-        <v>0.006291103549301624</v>
+        <v>0.05527783185243607</v>
       </c>
       <c r="CM3" t="n">
-        <v>0.2642195224761963</v>
+        <v>0.2747988104820251</v>
       </c>
       <c r="CN3" t="n">
-        <v>0.03234317153692245</v>
+        <v>0.01483754720538855</v>
       </c>
       <c r="CO3" t="n">
-        <v>0.2100541740655899</v>
+        <v>0.0747578963637352</v>
       </c>
       <c r="CP3" t="n">
-        <v>0.1279682964086533</v>
+        <v>0.08466556668281555</v>
       </c>
       <c r="CQ3" t="n">
-        <v>0.0613982304930687</v>
+        <v>0.03848869353532791</v>
       </c>
       <c r="CR3" t="n">
-        <v>0.02551062777638435</v>
+        <v>0.1114508733153343</v>
       </c>
       <c r="CS3" t="n">
-        <v>0.01153431087732315</v>
+        <v>0.05725440382957458</v>
       </c>
       <c r="CT3" t="n">
-        <v>0.07611967623233795</v>
+        <v>0.1369301974773407</v>
       </c>
       <c r="CU3" t="n">
-        <v>0.1317503452301025</v>
+        <v>0.1040018275380135</v>
       </c>
       <c r="CV3" t="n">
-        <v>0.04710381478071213</v>
+        <v>0.01505946181714535</v>
       </c>
       <c r="CW3" t="n">
-        <v>0.08892436325550079</v>
+        <v>0.1516581922769547</v>
       </c>
       <c r="CX3" t="n">
-        <v>0.06971249729394913</v>
+        <v>0.08917783945798874</v>
       </c>
       <c r="CY3" t="n">
-        <v>0.08315367996692657</v>
+        <v>0.05063734203577042</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0.01655806601047516</v>
+        <v>0.1346296668052673</v>
       </c>
       <c r="DA3" t="n">
-        <v>0.02950312383472919</v>
+        <v>0.2182931005954742</v>
       </c>
       <c r="DB3" t="n">
-        <v>0.005467582494020462</v>
+        <v>0.001615986227989197</v>
       </c>
       <c r="DC3" t="n">
-        <v>0.004109308123588562</v>
+        <v>0.2085464298725128</v>
       </c>
       <c r="DD3" t="n">
-        <v>0.04147154465317726</v>
+        <v>0.008200563490390778</v>
       </c>
       <c r="DE3" t="n">
-        <v>0.1379728466272354</v>
+        <v>0.1150279939174652</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.1483102440834045</v>
+        <v>0.161695659160614</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.06729529798030853</v>
+        <v>0.03402906283736229</v>
       </c>
       <c r="DH3" t="n">
-        <v>0.07374307513237</v>
+        <v>0.09670931100845337</v>
       </c>
       <c r="DI3" t="n">
-        <v>0.08738857507705688</v>
+        <v>0.3608468174934387</v>
       </c>
       <c r="DJ3" t="n">
-        <v>0.05815097317099571</v>
+        <v>0.1012525260448456</v>
       </c>
       <c r="DK3" t="n">
-        <v>0.1369446516036987</v>
+        <v>0.1640859097242355</v>
       </c>
       <c r="DL3" t="n">
-        <v>0.1332107484340668</v>
+        <v>0.3099892735481262</v>
       </c>
       <c r="DM3" t="n">
-        <v>0.02561667561531067</v>
+        <v>0.2485102713108063</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.1084576323628426</v>
+        <v>0.05376100167632103</v>
       </c>
       <c r="DO3" t="n">
-        <v>0.02124016918241978</v>
+        <v>0.116700679063797</v>
       </c>
       <c r="DP3" t="n">
-        <v>0.07586826384067535</v>
+        <v>0.06601009517908096</v>
       </c>
       <c r="DQ3" t="n">
-        <v>0.08973714709281921</v>
+        <v>0.08205436170101166</v>
       </c>
       <c r="DR3" t="n">
-        <v>0.1768173575401306</v>
+        <v>0.02359909005463123</v>
       </c>
       <c r="DS3" t="n">
-        <v>0.1832675039768219</v>
+        <v>0.1010812520980835</v>
       </c>
       <c r="DT3" t="n">
-        <v>0.005008447915315628</v>
+        <v>0.1582038104534149</v>
       </c>
       <c r="DU3" t="n">
-        <v>0.006166592240333557</v>
+        <v>0.05091936141252518</v>
       </c>
       <c r="DV3" t="n">
-        <v>0.08848065137863159</v>
+        <v>0.1148090660572052</v>
       </c>
       <c r="DW3" t="n">
-        <v>0.03379690647125244</v>
+        <v>0.01675811037421227</v>
       </c>
       <c r="DX3" t="n">
-        <v>0.005440825596451759</v>
+        <v>0.08526765555143356</v>
       </c>
       <c r="DY3" t="n">
-        <v>0.115849494934082</v>
+        <v>0.2852776646614075</v>
       </c>
       <c r="DZ3" t="n">
-        <v>0.04790257662534714</v>
+        <v>0.04610421881079674</v>
       </c>
       <c r="EA3" t="n">
-        <v>0.1634470969438553</v>
+        <v>0.03881119936704636</v>
       </c>
       <c r="EB3" t="n">
-        <v>0.08577367663383484</v>
+        <v>0.04795977473258972</v>
       </c>
       <c r="EC3" t="n">
-        <v>0.1271029263734818</v>
+        <v>0.1109556183218956</v>
       </c>
       <c r="ED3" t="n">
-        <v>0.07039810717105865</v>
+        <v>0.1873972713947296</v>
       </c>
       <c r="EE3" t="n">
-        <v>0.08439027518033981</v>
+        <v>0.09201518446207047</v>
       </c>
       <c r="EF3" t="n">
-        <v>0.03410681337118149</v>
+        <v>0.1263895928859711</v>
       </c>
       <c r="EG3" t="n">
-        <v>0.1575731188058853</v>
+        <v>0.1643096357584</v>
       </c>
       <c r="EH3" t="n">
-        <v>0.1231426671147346</v>
+        <v>0.07303529232740402</v>
       </c>
       <c r="EI3" t="n">
-        <v>0.04268953576683998</v>
+        <v>0.06133685633540154</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0.06746809929609299</v>
+        <v>0.1680712252855301</v>
       </c>
       <c r="EK3" t="n">
-        <v>0.00313287228345871</v>
+        <v>0.2522213160991669</v>
       </c>
       <c r="EL3" t="n">
-        <v>0.01168726291507483</v>
+        <v>0.08569566160440445</v>
       </c>
       <c r="EM3" t="n">
-        <v>0.009479675441980362</v>
+        <v>0.06290245056152344</v>
       </c>
       <c r="EN3" t="n">
-        <v>0.07259459793567657</v>
+        <v>0.02658937312662601</v>
       </c>
       <c r="EO3" t="n">
-        <v>0.236127644777298</v>
+        <v>0.04382066428661346</v>
       </c>
       <c r="EP3" t="n">
-        <v>0.1558595597743988</v>
+        <v>0.01182135567069054</v>
       </c>
       <c r="EQ3" t="n">
-        <v>0.1188662946224213</v>
+        <v>0.070535808801651</v>
       </c>
       <c r="ER3" t="n">
-        <v>0.01958290114998817</v>
+        <v>0.009522806853055954</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.01812935620546341</v>
+        <v>0.05758040398359299</v>
       </c>
       <c r="ET3" t="n">
-        <v>0.07686123996973038</v>
+        <v>0.1257336288690567</v>
       </c>
       <c r="EU3" t="n">
-        <v>0.08113475143909454</v>
+        <v>0.04446880519390106</v>
       </c>
       <c r="EV3" t="n">
-        <v>0.00388481467962265</v>
+        <v>0.3868923187255859</v>
       </c>
       <c r="EW3" t="n">
-        <v>0.1337253451347351</v>
+        <v>0.1841844767332077</v>
       </c>
       <c r="EX3" t="n">
-        <v>0.02595112100243568</v>
+        <v>0.02592884935438633</v>
       </c>
       <c r="EY3" t="n">
-        <v>0.1206080168485641</v>
+        <v>0.09822800010442734</v>
       </c>
       <c r="EZ3" t="n">
-        <v>0.05910451337695122</v>
+        <v>0.03898093476891518</v>
       </c>
       <c r="FA3" t="n">
-        <v>0.1223644763231277</v>
+        <v>0.006960997357964516</v>
       </c>
       <c r="FB3" t="n">
-        <v>0.01011578738689423</v>
+        <v>0.1504709124565125</v>
       </c>
       <c r="FC3" t="n">
-        <v>0.01198633946478367</v>
+        <v>0.1808714270591736</v>
       </c>
       <c r="FD3" t="n">
-        <v>0.002960545942187309</v>
+        <v>0.01930597983300686</v>
       </c>
       <c r="FE3" t="n">
-        <v>0.01563924551010132</v>
+        <v>0.1308953762054443</v>
       </c>
       <c r="FF3" t="n">
-        <v>0.03591215237975121</v>
+        <v>0.006253235042095184</v>
       </c>
       <c r="FG3" t="n">
-        <v>0.1251135915517807</v>
+        <v>0.007096856832504272</v>
       </c>
       <c r="FH3" t="n">
-        <v>0.0068986676633358</v>
+        <v>0.02529395744204521</v>
       </c>
       <c r="FI3" t="n">
-        <v>0.0003128740936517715</v>
+        <v>0.09671171009540558</v>
       </c>
       <c r="FJ3" t="n">
-        <v>0.06537370383739471</v>
+        <v>0.2106069624423981</v>
       </c>
       <c r="FK3" t="n">
-        <v>0.03100249543786049</v>
+        <v>0.04906720668077469</v>
       </c>
       <c r="FL3" t="n">
-        <v>0.1431676149368286</v>
+        <v>0.04438064247369766</v>
       </c>
       <c r="FM3" t="n">
-        <v>0.1856143474578857</v>
+        <v>0.03911485522985458</v>
       </c>
       <c r="FN3" t="n">
-        <v>0.003187507390975952</v>
+        <v>0.1562179327011108</v>
       </c>
       <c r="FO3" t="n">
-        <v>0.1402772963047028</v>
+        <v>0.2399005144834518</v>
       </c>
       <c r="FP3" t="n">
-        <v>0.2240432351827621</v>
+        <v>0.1552833169698715</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0.1075453385710716</v>
+        <v>0.3421632349491119</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.1698616594076157</v>
+        <v>0.009981632232666016</v>
       </c>
       <c r="FS3" t="n">
-        <v>0.0129452683031559</v>
+        <v>0.3457276821136475</v>
       </c>
       <c r="FT3" t="n">
-        <v>0.09133148193359375</v>
+        <v>0.1746563911437988</v>
       </c>
       <c r="FU3" t="n">
-        <v>0.02750242128968239</v>
+        <v>0.3343283236026764</v>
       </c>
       <c r="FV3" t="n">
-        <v>0.5924932360649109</v>
+        <v>0.01927714236080647</v>
       </c>
       <c r="FW3" t="n">
-        <v>0.02859649807214737</v>
+        <v>0.1017788648605347</v>
       </c>
       <c r="FX3" t="n">
-        <v>0.2019226551055908</v>
+        <v>0.1353288143873215</v>
       </c>
       <c r="FY3" t="n">
-        <v>0.1767490059137344</v>
+        <v>0.1613946557044983</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0.06228626146912575</v>
+        <v>0.08419951796531677</v>
       </c>
       <c r="GA3" t="n">
-        <v>0.003003435209393501</v>
+        <v>0.1530329287052155</v>
       </c>
       <c r="GB3" t="n">
-        <v>0.1691957414150238</v>
+        <v>0.002294370904564857</v>
       </c>
       <c r="GC3" t="n">
-        <v>0.05109758302569389</v>
+        <v>0.375821590423584</v>
       </c>
       <c r="GD3" t="n">
-        <v>0.05545895919203758</v>
+        <v>0.1040040254592896</v>
       </c>
       <c r="GE3" t="n">
-        <v>0.05388716980814934</v>
+        <v>0.2194350510835648</v>
       </c>
       <c r="GF3" t="n">
-        <v>0.07752715051174164</v>
+        <v>0.1044427454471588</v>
       </c>
       <c r="GG3" t="n">
-        <v>0.08913552761077881</v>
+        <v>0.07718148082494736</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.1751664876937866</v>
+        <v>0.01137826964259148</v>
       </c>
       <c r="B4" t="n">
-        <v>0.7183550596237183</v>
+        <v>0.1589354574680328</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1230248138308525</v>
+        <v>0.01660332828760147</v>
       </c>
       <c r="D4" t="n">
-        <v>0.009312227368354797</v>
+        <v>0.04509287327528</v>
       </c>
       <c r="E4" t="n">
-        <v>0.07658681273460388</v>
+        <v>0.02325557917356491</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6144463419914246</v>
+        <v>0.0248199850320816</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0008621551096439362</v>
+        <v>0.0009357692906633019</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3161633312702179</v>
+        <v>0.01190982572734356</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09143411368131638</v>
+        <v>0.01629013381898403</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1694556027650833</v>
+        <v>0.01395585387945175</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5006493926048279</v>
+        <v>0.1405763179063797</v>
       </c>
       <c r="L4" t="n">
-        <v>0.232762411236763</v>
+        <v>0.006564814131706953</v>
       </c>
       <c r="M4" t="n">
-        <v>0.06840942800045013</v>
+        <v>0.04019457846879959</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2481883466243744</v>
+        <v>0.002981007099151611</v>
       </c>
       <c r="O4" t="n">
-        <v>0.6049743294715881</v>
+        <v>0.01835719123482704</v>
       </c>
       <c r="P4" t="n">
-        <v>0.02980691939592361</v>
+        <v>0.007092724554240704</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.729367733001709</v>
+        <v>0.02630767785012722</v>
       </c>
       <c r="R4" t="n">
-        <v>0.231491357088089</v>
+        <v>0.00194977386854589</v>
       </c>
       <c r="S4" t="n">
-        <v>0.01539918966591358</v>
+        <v>0.001649526413530111</v>
       </c>
       <c r="T4" t="n">
-        <v>0.03450662270188332</v>
+        <v>0.01341085787862539</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1397303491830826</v>
+        <v>0.003832853632047772</v>
       </c>
       <c r="V4" t="n">
-        <v>0.3268676996231079</v>
+        <v>0.005503802094608545</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1410770267248154</v>
+        <v>0.0008951480267569423</v>
       </c>
       <c r="X4" t="n">
-        <v>0.103380411863327</v>
+        <v>0.005601220298558474</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.02579536847770214</v>
+        <v>0.003560619428753853</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.2629231512546539</v>
+        <v>0.01362041663378477</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.1780586838722229</v>
+        <v>0.01450661011040211</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.1612874865531921</v>
+        <v>0.01105003245174885</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.0208726916462183</v>
+        <v>0.001280019525438547</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.0698743537068367</v>
+        <v>0.01257193274796009</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.1236783787608147</v>
+        <v>0.0002745415549725294</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.2234182953834534</v>
+        <v>0.01191966515034437</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.4629587829113007</v>
+        <v>0.001702934037894011</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.04588521271944046</v>
+        <v>0.006463163997977972</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.08988191187381744</v>
+        <v>0.005067792255431414</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.1192387193441391</v>
+        <v>0.008267795667052269</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.05667250975966454</v>
+        <v>0.01377461664378643</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.008501522243022919</v>
+        <v>0.02064640820026398</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.2025897353887558</v>
+        <v>0.0049777552485466</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.311150461435318</v>
+        <v>0.005110831465572119</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.1687274575233459</v>
+        <v>0.0009657090995460749</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.2088936865329742</v>
+        <v>0.01686796732246876</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.03715924173593521</v>
+        <v>0.001474426593631506</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.03956590592861176</v>
+        <v>0.002366703469306231</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.07143585383892059</v>
+        <v>0.008974026888608932</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.06279581785202026</v>
+        <v>0.007109303027391434</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.2888034880161285</v>
+        <v>0.09325577318668365</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.2513695061206818</v>
+        <v>0.01352288480848074</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.2434473633766174</v>
+        <v>0.007569395005702972</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.1989377290010452</v>
+        <v>0.007615260314196348</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.01069594919681549</v>
+        <v>0.00529624056071043</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.2545304596424103</v>
+        <v>0.01275643054395914</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.2882685363292694</v>
+        <v>0.00883242953568697</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.04613887518644333</v>
+        <v>0.001823845785111189</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.004713073372840881</v>
+        <v>0.007072866894304752</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.2899511456489563</v>
+        <v>0.02834327146410942</v>
       </c>
       <c r="BE4" t="n">
-        <v>0.2841671109199524</v>
+        <v>0.02457201853394508</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.1570712029933929</v>
+        <v>0.00343209458515048</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.1467517465353012</v>
+        <v>0.03301900625228882</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.09671477228403091</v>
+        <v>0.003452502656728029</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.005782753229141235</v>
+        <v>0.008264763280749321</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.06917168200016022</v>
+        <v>0.01247680000960827</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.1500441282987595</v>
+        <v>0.01050288323312998</v>
       </c>
       <c r="BL4" t="n">
-        <v>0.016786839812994</v>
+        <v>0.008975821547210217</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.001836040988564491</v>
+        <v>0.02395040355622768</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.187390074133873</v>
+        <v>0.009275908581912518</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.1676906943321228</v>
+        <v>0.002126503502950072</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.04205674678087234</v>
+        <v>0.005782430525869131</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0.4581371545791626</v>
+        <v>0.01120600569993258</v>
       </c>
       <c r="BR4" t="n">
-        <v>0.09217232465744019</v>
+        <v>0.00255685718730092</v>
       </c>
       <c r="BS4" t="n">
-        <v>0.2273038625717163</v>
+        <v>0.0117238936945796</v>
       </c>
       <c r="BT4" t="n">
-        <v>0.0247962586581707</v>
+        <v>0.01257229223847389</v>
       </c>
       <c r="BU4" t="n">
-        <v>0.1775474697351456</v>
+        <v>0.008033370599150658</v>
       </c>
       <c r="BV4" t="n">
-        <v>0.0677400678396225</v>
+        <v>0.04557904228568077</v>
       </c>
       <c r="BW4" t="n">
-        <v>0.03566116839647293</v>
+        <v>0.007607681676745415</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.1032266765832901</v>
+        <v>0.001471179886721075</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.4375153779983521</v>
+        <v>0.01027246750891209</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0.5977372527122498</v>
+        <v>0.006798332091420889</v>
       </c>
       <c r="CA4" t="n">
-        <v>0.2994927167892456</v>
+        <v>0.004977608099579811</v>
       </c>
       <c r="CB4" t="n">
-        <v>0.02770041301846504</v>
+        <v>0.004028713330626488</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.1140465512871742</v>
+        <v>0.0003314280766062438</v>
       </c>
       <c r="CD4" t="n">
-        <v>0.05464872345328331</v>
+        <v>0.002916334196925163</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.08825595676898956</v>
+        <v>0.02324552088975906</v>
       </c>
       <c r="CF4" t="n">
-        <v>0.02022074535489082</v>
+        <v>0.003417827421799302</v>
       </c>
       <c r="CG4" t="n">
-        <v>0.191168487071991</v>
+        <v>0.006461918819695711</v>
       </c>
       <c r="CH4" t="n">
-        <v>0.1890845000743866</v>
+        <v>0.005865971557796001</v>
       </c>
       <c r="CI4" t="n">
-        <v>0.09018144011497498</v>
+        <v>0.005349569022655487</v>
       </c>
       <c r="CJ4" t="n">
-        <v>0.07715053111314774</v>
+        <v>0.004835464991629124</v>
       </c>
       <c r="CK4" t="n">
-        <v>0.1636588573455811</v>
+        <v>0.006603271700441837</v>
       </c>
       <c r="CL4" t="n">
-        <v>0.01105779409408569</v>
+        <v>0.008708388544619083</v>
       </c>
       <c r="CM4" t="n">
-        <v>0.1340413987636566</v>
+        <v>0.02044609002768993</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.1051319018006325</v>
+        <v>0.003509006928652525</v>
       </c>
       <c r="CO4" t="n">
-        <v>0.09126047790050507</v>
+        <v>0.005967014469206333</v>
       </c>
       <c r="CP4" t="n">
-        <v>0.2220335453748703</v>
+        <v>0.01931956224143505</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.144490584731102</v>
+        <v>0.02247025445103645</v>
       </c>
       <c r="CR4" t="n">
-        <v>0.2941488027572632</v>
+        <v>0.0368289053440094</v>
       </c>
       <c r="CS4" t="n">
-        <v>0.228598415851593</v>
+        <v>0.01511756889522076</v>
       </c>
       <c r="CT4" t="n">
-        <v>0.2467635124921799</v>
+        <v>0.00672672176733613</v>
       </c>
       <c r="CU4" t="n">
-        <v>0.4724721610546112</v>
+        <v>0.001500159851275384</v>
       </c>
       <c r="CV4" t="n">
-        <v>0.06246979162096977</v>
+        <v>0.001340848626568913</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.07865840941667557</v>
+        <v>0.02506943233311176</v>
       </c>
       <c r="CX4" t="n">
-        <v>0.09062165766954422</v>
+        <v>0.004346332512795925</v>
       </c>
       <c r="CY4" t="n">
-        <v>0.1253716945648193</v>
+        <v>0.01201836857944727</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.1254871785640717</v>
+        <v>0.005239281337708235</v>
       </c>
       <c r="DA4" t="n">
-        <v>0.1129180490970612</v>
+        <v>0.006845122203230858</v>
       </c>
       <c r="DB4" t="n">
-        <v>0.007095450535416603</v>
+        <v>0.004818708170205355</v>
       </c>
       <c r="DC4" t="n">
-        <v>0.1563540548086166</v>
+        <v>0.00668727420270443</v>
       </c>
       <c r="DD4" t="n">
-        <v>0.01802455447614193</v>
+        <v>0.007900167256593704</v>
       </c>
       <c r="DE4" t="n">
-        <v>0.03043520450592041</v>
+        <v>0.01931849680840969</v>
       </c>
       <c r="DF4" t="n">
-        <v>0.1982156783342361</v>
+        <v>0.02146884799003601</v>
       </c>
       <c r="DG4" t="n">
-        <v>0.2338468581438065</v>
+        <v>0.003736478742212057</v>
       </c>
       <c r="DH4" t="n">
-        <v>0.2366732805967331</v>
+        <v>0.02383076027035713</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.6848965883255005</v>
+        <v>0.008933420293033123</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0.04147916287183762</v>
+        <v>0.01666192710399628</v>
       </c>
       <c r="DK4" t="n">
-        <v>0.4613253474235535</v>
+        <v>0.01462320517748594</v>
       </c>
       <c r="DL4" t="n">
-        <v>0.1870922595262527</v>
+        <v>0.01174944639205933</v>
       </c>
       <c r="DM4" t="n">
-        <v>0.1833070069551468</v>
+        <v>0.01416958309710026</v>
       </c>
       <c r="DN4" t="n">
-        <v>0.2503106892108917</v>
+        <v>0.004976040683686733</v>
       </c>
       <c r="DO4" t="n">
-        <v>0.2767406702041626</v>
+        <v>0.009515557438135147</v>
       </c>
       <c r="DP4" t="n">
-        <v>0.1730263531208038</v>
+        <v>0.02470436505973339</v>
       </c>
       <c r="DQ4" t="n">
-        <v>0.2255070060491562</v>
+        <v>0.001272995956242085</v>
       </c>
       <c r="DR4" t="n">
-        <v>0.1375865936279297</v>
+        <v>0.0237626563757658</v>
       </c>
       <c r="DS4" t="n">
-        <v>0.09642136842012405</v>
+        <v>0.003943123389035463</v>
       </c>
       <c r="DT4" t="n">
-        <v>0.0825633630156517</v>
+        <v>0.0110761933028698</v>
       </c>
       <c r="DU4" t="n">
-        <v>0.387214869260788</v>
+        <v>0.01001237984746695</v>
       </c>
       <c r="DV4" t="n">
-        <v>0.3029999136924744</v>
+        <v>0.006821474991738796</v>
       </c>
       <c r="DW4" t="n">
-        <v>0.1813402771949768</v>
+        <v>0.007793797180056572</v>
       </c>
       <c r="DX4" t="n">
-        <v>0.0803966224193573</v>
+        <v>0.006641725078225136</v>
       </c>
       <c r="DY4" t="n">
-        <v>0.1940678060054779</v>
+        <v>0.01463270653039217</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0.0347609743475914</v>
+        <v>0.007110243197530508</v>
       </c>
       <c r="EA4" t="n">
-        <v>0.3005311191082001</v>
+        <v>0.002347668632864952</v>
       </c>
       <c r="EB4" t="n">
-        <v>0.1697745025157928</v>
+        <v>0.01260693836957216</v>
       </c>
       <c r="EC4" t="n">
-        <v>0.1414032429456711</v>
+        <v>0.004719035234302282</v>
       </c>
       <c r="ED4" t="n">
-        <v>0.02248702943325043</v>
+        <v>0.01056369859725237</v>
       </c>
       <c r="EE4" t="n">
-        <v>0.05297308415174484</v>
+        <v>0.01181182265281677</v>
       </c>
       <c r="EF4" t="n">
-        <v>0.04030333831906319</v>
+        <v>0.01521178148686886</v>
       </c>
       <c r="EG4" t="n">
-        <v>0.2161854058504105</v>
+        <v>0.03355861082673073</v>
       </c>
       <c r="EH4" t="n">
-        <v>0.1442984640598297</v>
+        <v>0.01190991047769785</v>
       </c>
       <c r="EI4" t="n">
-        <v>0.1024474203586578</v>
+        <v>0.01011791173368692</v>
       </c>
       <c r="EJ4" t="n">
-        <v>0.09045986086130142</v>
+        <v>0.01543712615966797</v>
       </c>
       <c r="EK4" t="n">
-        <v>0.2924602031707764</v>
+        <v>0.01542462408542633</v>
       </c>
       <c r="EL4" t="n">
-        <v>0.02930008247494698</v>
+        <v>0.009592371061444283</v>
       </c>
       <c r="EM4" t="n">
-        <v>0.001685528084635735</v>
+        <v>0.001067002769559622</v>
       </c>
       <c r="EN4" t="n">
-        <v>0.05388746410608292</v>
+        <v>0.002397736068814993</v>
       </c>
       <c r="EO4" t="n">
-        <v>0.2263007760047913</v>
+        <v>0.004301033448427916</v>
       </c>
       <c r="EP4" t="n">
-        <v>0.1636730879545212</v>
+        <v>0.01617746241390705</v>
       </c>
       <c r="EQ4" t="n">
-        <v>0.02223001047968864</v>
+        <v>0.01247821655124426</v>
       </c>
       <c r="ER4" t="n">
-        <v>0.1192888617515564</v>
+        <v>0.01024020928889513</v>
       </c>
       <c r="ES4" t="n">
-        <v>0.1542645841836929</v>
+        <v>0.01067388989031315</v>
       </c>
       <c r="ET4" t="n">
-        <v>0.3350310921669006</v>
+        <v>0.01361451670527458</v>
       </c>
       <c r="EU4" t="n">
-        <v>0.2038055658340454</v>
+        <v>0.00639777909964323</v>
       </c>
       <c r="EV4" t="n">
-        <v>0.3247177004814148</v>
+        <v>0.01700278557837009</v>
       </c>
       <c r="EW4" t="n">
-        <v>0.02201348543167114</v>
+        <v>0.003896880662068725</v>
       </c>
       <c r="EX4" t="n">
-        <v>0.06721209734678268</v>
+        <v>0.0009979112073779106</v>
       </c>
       <c r="EY4" t="n">
-        <v>0.04381779581308365</v>
+        <v>0.02655152231454849</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0.06472970545291901</v>
+        <v>0.00147767411544919</v>
       </c>
       <c r="FA4" t="n">
-        <v>0.07960738241672516</v>
+        <v>0.007623225916177034</v>
       </c>
       <c r="FB4" t="n">
-        <v>0.130790501832962</v>
+        <v>0.008654838427901268</v>
       </c>
       <c r="FC4" t="n">
-        <v>0.108602300286293</v>
+        <v>0.004002535250037909</v>
       </c>
       <c r="FD4" t="n">
-        <v>0.08461582660675049</v>
+        <v>0.005932989530265331</v>
       </c>
       <c r="FE4" t="n">
-        <v>0.1914342939853668</v>
+        <v>0.003035495989024639</v>
       </c>
       <c r="FF4" t="n">
-        <v>0.008880428969860077</v>
+        <v>0.008801378309726715</v>
       </c>
       <c r="FG4" t="n">
-        <v>0.01381129398941994</v>
+        <v>0.004112053196877241</v>
       </c>
       <c r="FH4" t="n">
-        <v>0.1829830408096313</v>
+        <v>0.008250342682003975</v>
       </c>
       <c r="FI4" t="n">
-        <v>0.03800260275602341</v>
+        <v>0.005582979880273342</v>
       </c>
       <c r="FJ4" t="n">
-        <v>0.2679648399353027</v>
+        <v>0.01018165703862906</v>
       </c>
       <c r="FK4" t="n">
-        <v>0.2211425006389618</v>
+        <v>0.006325258407741785</v>
       </c>
       <c r="FL4" t="n">
-        <v>0.3352125287055969</v>
+        <v>0.005121958907693624</v>
       </c>
       <c r="FM4" t="n">
-        <v>0.09595411270856857</v>
+        <v>0.01246536150574684</v>
       </c>
       <c r="FN4" t="n">
-        <v>0.162983626127243</v>
+        <v>0.005327150691300631</v>
       </c>
       <c r="FO4" t="n">
-        <v>0.2336323857307434</v>
+        <v>0.004945057909935713</v>
       </c>
       <c r="FP4" t="n">
-        <v>0.1966575980186462</v>
+        <v>0.00227834121324122</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0.1640051007270813</v>
+        <v>0.0232805572450161</v>
       </c>
       <c r="FR4" t="n">
-        <v>0.01119177136570215</v>
+        <v>0.02080640383064747</v>
       </c>
       <c r="FS4" t="n">
-        <v>0.2265964150428772</v>
+        <v>0.01355952676385641</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.2422281503677368</v>
+        <v>0.0003278647782281041</v>
       </c>
       <c r="FU4" t="n">
-        <v>0.2718260586261749</v>
+        <v>0.0004669317277148366</v>
       </c>
       <c r="FV4" t="n">
-        <v>0.3449261784553528</v>
+        <v>0.00100045301951468</v>
       </c>
       <c r="FW4" t="n">
-        <v>0.1297224909067154</v>
+        <v>0.00143810675945133</v>
       </c>
       <c r="FX4" t="n">
-        <v>0.0395253449678421</v>
+        <v>0.01034440565854311</v>
       </c>
       <c r="FY4" t="n">
-        <v>0.2040390521287918</v>
+        <v>0.003281943034380674</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0.05659858882427216</v>
+        <v>0.008304727263748646</v>
       </c>
       <c r="GA4" t="n">
-        <v>0.06232395395636559</v>
+        <v>0.009158032946288586</v>
       </c>
       <c r="GB4" t="n">
-        <v>0.2688901424407959</v>
+        <v>0.001428961521014571</v>
       </c>
       <c r="GC4" t="n">
-        <v>0.1018984466791153</v>
+        <v>0.01818874292075634</v>
       </c>
       <c r="GD4" t="n">
-        <v>0.2010040581226349</v>
+        <v>0.008323679678142071</v>
       </c>
       <c r="GE4" t="n">
-        <v>0.2950308918952942</v>
+        <v>0.0232970155775547</v>
       </c>
       <c r="GF4" t="n">
-        <v>0.191798597574234</v>
+        <v>0.01154188811779022</v>
       </c>
       <c r="GG4" t="n">
-        <v>0.2719489336013794</v>
+        <v>0.01893212087452412</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.0008000045781955123</v>
+        <v>0.3758392632007599</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0001026988538797013</v>
+        <v>0.516169548034668</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001507531153038144</v>
+        <v>0.6029610633850098</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0003190206771250814</v>
+        <v>0.1906723380088806</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0008112264913506806</v>
+        <v>0.9551830291748047</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0003029744257219136</v>
+        <v>0.8707655072212219</v>
       </c>
       <c r="G5" t="n">
-        <v>0.000351961178239435</v>
+        <v>0.1195705384016037</v>
       </c>
       <c r="H5" t="n">
-        <v>7.539878424722701e-05</v>
+        <v>0.6421282887458801</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0004354364646133035</v>
+        <v>0.4017249941825867</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0006850427598692477</v>
+        <v>0.6990476846694946</v>
       </c>
       <c r="K5" t="n">
-        <v>1.284462632611394e-05</v>
+        <v>0.07153001427650452</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001718061976134777</v>
+        <v>0.56624436378479</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0006014273967593908</v>
+        <v>0.1005149036645889</v>
       </c>
       <c r="N5" t="n">
-        <v>0.001151221455074847</v>
+        <v>0.7510397434234619</v>
       </c>
       <c r="O5" t="n">
-        <v>0.000449059996753931</v>
+        <v>0.148522287607193</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0003120610781479627</v>
+        <v>0.1320318877696991</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0004368867666926235</v>
+        <v>0.2409669607877731</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0006094917189329863</v>
+        <v>0.05310007929801941</v>
       </c>
       <c r="S5" t="n">
-        <v>5.749264892074279e-05</v>
+        <v>0.02407327853143215</v>
       </c>
       <c r="T5" t="n">
-        <v>3.557953459676355e-05</v>
+        <v>0.2160790115594864</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0002477423113305122</v>
+        <v>0.2092576026916504</v>
       </c>
       <c r="V5" t="n">
-        <v>0.0005011104512959719</v>
+        <v>0.2198393493890762</v>
       </c>
       <c r="W5" t="n">
-        <v>9.435018000658602e-06</v>
+        <v>0.2862180173397064</v>
       </c>
       <c r="X5" t="n">
-        <v>0.0008502245182171464</v>
+        <v>0.01852403022348881</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.0002723762881942093</v>
+        <v>0.1820365488529205</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.0004358751466497779</v>
+        <v>0.04731174558401108</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.0002994395326822996</v>
+        <v>0.3507418930530548</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.0003641643561422825</v>
+        <v>0.3468306064605713</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.0007544240797869861</v>
+        <v>0.2016709893941879</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.0009884147439152002</v>
+        <v>0.03476021438837051</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.0006225456018000841</v>
+        <v>0.4504327774047852</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.0002729660482145846</v>
+        <v>0.08852578699588776</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.0004525174445006996</v>
+        <v>0.1720789819955826</v>
       </c>
       <c r="AH5" t="n">
-        <v>3.844324965029955e-05</v>
+        <v>0.2437755614519119</v>
       </c>
       <c r="AI5" t="n">
-        <v>2.226268406957388e-05</v>
+        <v>0.01910249888896942</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.0001944016694324091</v>
+        <v>0.1005117297172546</v>
       </c>
       <c r="AK5" t="n">
-        <v>2.947333996417001e-05</v>
+        <v>0.1816173642873764</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.0004602932604029775</v>
+        <v>0.09783223271369934</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.0005926870508119464</v>
+        <v>0.09693894535303116</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.000157446920638904</v>
+        <v>0.3758172392845154</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.0006921157473698258</v>
+        <v>0.2351370304822922</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.0003232768503949046</v>
+        <v>0.004847127944231033</v>
       </c>
       <c r="AQ5" t="n">
-        <v>7.721185102127492e-05</v>
+        <v>0.2682822942733765</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.0005900178803130984</v>
+        <v>0.08876210451126099</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.0001895171590149403</v>
+        <v>0.1665111631155014</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.0001739101426210254</v>
+        <v>0.242881178855896</v>
       </c>
       <c r="AU5" t="n">
-        <v>1.918469206430018e-05</v>
+        <v>0.1792470812797546</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.0005772168515250087</v>
+        <v>0.5747166872024536</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.0003186783578712493</v>
+        <v>0.08121373504400253</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.0005487975431606174</v>
+        <v>0.3339730799198151</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.0004040075582452118</v>
+        <v>0.1033420413732529</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.0001221327256644145</v>
+        <v>0.1679511517286301</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.0002692238485906273</v>
+        <v>0.5164871215820312</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.0002906826557591558</v>
+        <v>0.3598904609680176</v>
       </c>
       <c r="BC5" t="n">
-        <v>1.870417327154428e-05</v>
+        <v>0.6592251062393188</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.0001629670150578022</v>
+        <v>0.5326129198074341</v>
       </c>
       <c r="BE5" t="n">
-        <v>5.763888475485146e-05</v>
+        <v>0.2362251877784729</v>
       </c>
       <c r="BF5" t="n">
-        <v>0.001061830436810851</v>
+        <v>0.05280758440494537</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.0004687360487878323</v>
+        <v>0.6557347178459167</v>
       </c>
       <c r="BH5" t="n">
-        <v>0.0004362073668744415</v>
+        <v>0.4239758253097534</v>
       </c>
       <c r="BI5" t="n">
-        <v>6.236038461793214e-05</v>
+        <v>0.02221618592739105</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.0002704387879930437</v>
+        <v>0.3609654009342194</v>
       </c>
       <c r="BK5" t="n">
-        <v>0.0004271903017070144</v>
+        <v>0.09936927258968353</v>
       </c>
       <c r="BL5" t="n">
-        <v>0.0005582435405813158</v>
+        <v>0.2757116854190826</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.0001104024122469127</v>
+        <v>0.347855269908905</v>
       </c>
       <c r="BN5" t="n">
-        <v>0.0005996820982545614</v>
+        <v>0.1876592338085175</v>
       </c>
       <c r="BO5" t="n">
-        <v>0.0001975966151803732</v>
+        <v>0.243757963180542</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.0001723264867905527</v>
+        <v>0.3998675346374512</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0.0002938269171863794</v>
+        <v>0.06393462419509888</v>
       </c>
       <c r="BR5" t="n">
-        <v>0.0003426812763791531</v>
+        <v>0.09741532057523727</v>
       </c>
       <c r="BS5" t="n">
-        <v>0.0008761906065046787</v>
+        <v>0.2537106871604919</v>
       </c>
       <c r="BT5" t="n">
-        <v>0.0009129116660915315</v>
+        <v>0.1274005174636841</v>
       </c>
       <c r="BU5" t="n">
-        <v>0.0002909526810981333</v>
+        <v>0.1353057026863098</v>
       </c>
       <c r="BV5" t="n">
-        <v>7.775433186907321e-05</v>
+        <v>0.02444355189800262</v>
       </c>
       <c r="BW5" t="n">
-        <v>0.000919124111533165</v>
+        <v>0.4238478541374207</v>
       </c>
       <c r="BX5" t="n">
-        <v>2.139007119694725e-05</v>
+        <v>0.196577861905098</v>
       </c>
       <c r="BY5" t="n">
-        <v>8.069597242865711e-05</v>
+        <v>0.3666366934776306</v>
       </c>
       <c r="BZ5" t="n">
-        <v>0.0002108464977936819</v>
+        <v>0.1799997240304947</v>
       </c>
       <c r="CA5" t="n">
-        <v>0.0003629938582889736</v>
+        <v>0.1484086215496063</v>
       </c>
       <c r="CB5" t="n">
-        <v>0.0004381798207759857</v>
+        <v>0.1894584000110626</v>
       </c>
       <c r="CC5" t="n">
-        <v>0.0006225928664207458</v>
+        <v>0.06724564731121063</v>
       </c>
       <c r="CD5" t="n">
-        <v>0.0004763990000355989</v>
+        <v>0.05802542343735695</v>
       </c>
       <c r="CE5" t="n">
-        <v>0.0001859138137660921</v>
+        <v>0.1020782887935638</v>
       </c>
       <c r="CF5" t="n">
-        <v>0.0002012773620663211</v>
+        <v>0.05213122814893723</v>
       </c>
       <c r="CG5" t="n">
-        <v>9.234347089659423e-05</v>
+        <v>0.06739512830972672</v>
       </c>
       <c r="CH5" t="n">
-        <v>0.0003135197330266237</v>
+        <v>0.2243549525737762</v>
       </c>
       <c r="CI5" t="n">
-        <v>0.000187027791980654</v>
+        <v>0.2705136239528656</v>
       </c>
       <c r="CJ5" t="n">
-        <v>1.092154707293957e-05</v>
+        <v>0.05121070146560669</v>
       </c>
       <c r="CK5" t="n">
-        <v>0.0001864371733972803</v>
+        <v>0.03290748596191406</v>
       </c>
       <c r="CL5" t="n">
-        <v>0.0002083152357954532</v>
+        <v>0.05432684347033501</v>
       </c>
       <c r="CM5" t="n">
-        <v>0.0002965137537103146</v>
+        <v>0.3980627059936523</v>
       </c>
       <c r="CN5" t="n">
-        <v>5.465208960231394e-05</v>
+        <v>0.07221122086048126</v>
       </c>
       <c r="CO5" t="n">
-        <v>0.0001818159216782078</v>
+        <v>0.014983294531703</v>
       </c>
       <c r="CP5" t="n">
-        <v>0.0004175663052592427</v>
+        <v>0.321372926235199</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.0001022852229652926</v>
+        <v>0.3965008556842804</v>
       </c>
       <c r="CR5" t="n">
-        <v>2.345546818105504e-05</v>
+        <v>0.1550635099411011</v>
       </c>
       <c r="CS5" t="n">
-        <v>0.0001954542967723683</v>
+        <v>0.1186588406562805</v>
       </c>
       <c r="CT5" t="n">
-        <v>0.0001654667139519006</v>
+        <v>0.6736333966255188</v>
       </c>
       <c r="CU5" t="n">
-        <v>0.0001009664047160186</v>
+        <v>0.112475223839283</v>
       </c>
       <c r="CV5" t="n">
-        <v>0.0004399542813189328</v>
+        <v>0.006597254425287247</v>
       </c>
       <c r="CW5" t="n">
-        <v>0.000257000036071986</v>
+        <v>0.008472935296595097</v>
       </c>
       <c r="CX5" t="n">
-        <v>0.0004517511988524348</v>
+        <v>0.1103939935564995</v>
       </c>
       <c r="CY5" t="n">
-        <v>0.0001001178607111797</v>
+        <v>0.1168426126241684</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.0002213084808317944</v>
+        <v>0.2655417323112488</v>
       </c>
       <c r="DA5" t="n">
-        <v>0.0001807005610316992</v>
+        <v>0.3278091251850128</v>
       </c>
       <c r="DB5" t="n">
-        <v>0.0001134632766479626</v>
+        <v>0.04345731437206268</v>
       </c>
       <c r="DC5" t="n">
-        <v>0.0001376395375700668</v>
+        <v>0.00488675944507122</v>
       </c>
       <c r="DD5" t="n">
-        <v>0.0001010025080177002</v>
+        <v>0.06458747386932373</v>
       </c>
       <c r="DE5" t="n">
-        <v>2.78458755929023e-05</v>
+        <v>0.1076551377773285</v>
       </c>
       <c r="DF5" t="n">
-        <v>0.0007984834956005216</v>
+        <v>0.4842271208763123</v>
       </c>
       <c r="DG5" t="n">
-        <v>0.0004938477650284767</v>
+        <v>0.5487495064735413</v>
       </c>
       <c r="DH5" t="n">
-        <v>0.0004221229464747012</v>
+        <v>0.483542263507843</v>
       </c>
       <c r="DI5" t="n">
-        <v>0.0003781874547712505</v>
+        <v>0.6377150416374207</v>
       </c>
       <c r="DJ5" t="n">
-        <v>0.0005886781145818532</v>
+        <v>0.01333306171000004</v>
       </c>
       <c r="DK5" t="n">
-        <v>2.140918513759971e-05</v>
+        <v>0.01497942209243774</v>
       </c>
       <c r="DL5" t="n">
-        <v>0.0003725275746546686</v>
+        <v>0.01636708527803421</v>
       </c>
       <c r="DM5" t="n">
-        <v>0.0006605833186767995</v>
+        <v>0.157129168510437</v>
       </c>
       <c r="DN5" t="n">
-        <v>4.659045225707814e-05</v>
+        <v>0.05482780933380127</v>
       </c>
       <c r="DO5" t="n">
-        <v>0.0001898776972666383</v>
+        <v>0.05043564736843109</v>
       </c>
       <c r="DP5" t="n">
-        <v>3.390645360923372e-05</v>
+        <v>0.1522291898727417</v>
       </c>
       <c r="DQ5" t="n">
-        <v>9.362623677588999e-05</v>
+        <v>0.2991929054260254</v>
       </c>
       <c r="DR5" t="n">
-        <v>0.0001988801814150065</v>
+        <v>0.1996707320213318</v>
       </c>
       <c r="DS5" t="n">
-        <v>0.0005102938739582896</v>
+        <v>0.05286234244704247</v>
       </c>
       <c r="DT5" t="n">
-        <v>0.000133397668832913</v>
+        <v>0.068434938788414</v>
       </c>
       <c r="DU5" t="n">
-        <v>3.885226033162326e-05</v>
+        <v>0.03421662747859955</v>
       </c>
       <c r="DV5" t="n">
-        <v>0.0004646115121431649</v>
+        <v>0.02899009734392166</v>
       </c>
       <c r="DW5" t="n">
-        <v>0.0001117860010708682</v>
+        <v>0.08944737911224365</v>
       </c>
       <c r="DX5" t="n">
-        <v>0.0007043127552606165</v>
+        <v>0.1864940524101257</v>
       </c>
       <c r="DY5" t="n">
-        <v>2.630165545269847e-05</v>
+        <v>0.3326841592788696</v>
       </c>
       <c r="DZ5" t="n">
-        <v>0.0001177958765765652</v>
+        <v>0.02349346876144409</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.0003046664060093462</v>
+        <v>0.1939435750246048</v>
       </c>
       <c r="EB5" t="n">
-        <v>0.001157379476353526</v>
+        <v>0.2668474316596985</v>
       </c>
       <c r="EC5" t="n">
-        <v>0.0001292227243538946</v>
+        <v>0.330941379070282</v>
       </c>
       <c r="ED5" t="n">
-        <v>0.0001601870026206598</v>
+        <v>0.1653574556112289</v>
       </c>
       <c r="EE5" t="n">
-        <v>0.0002574877580627799</v>
+        <v>0.2002759575843811</v>
       </c>
       <c r="EF5" t="n">
-        <v>0.0008800629293546081</v>
+        <v>0.1859748512506485</v>
       </c>
       <c r="EG5" t="n">
-        <v>0.0002511120401322842</v>
+        <v>0.008574018254876137</v>
       </c>
       <c r="EH5" t="n">
-        <v>0.0004033227451145649</v>
+        <v>0.1199781373143196</v>
       </c>
       <c r="EI5" t="n">
-        <v>6.709624722134322e-05</v>
+        <v>0.1411750167608261</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0.0004700905992649496</v>
+        <v>0.600476086139679</v>
       </c>
       <c r="EK5" t="n">
-        <v>0.000940740923397243</v>
+        <v>0.3003984689712524</v>
       </c>
       <c r="EL5" t="n">
-        <v>2.923468127846718e-05</v>
+        <v>0.08333698660135269</v>
       </c>
       <c r="EM5" t="n">
-        <v>0.0002772829029709101</v>
+        <v>0.07439855486154556</v>
       </c>
       <c r="EN5" t="n">
-        <v>0.0002966215834021568</v>
+        <v>0.109221488237381</v>
       </c>
       <c r="EO5" t="n">
-        <v>0.000295989157166332</v>
+        <v>0.05329927802085876</v>
       </c>
       <c r="EP5" t="n">
-        <v>0.0002007494622375816</v>
+        <v>0.1859240978956223</v>
       </c>
       <c r="EQ5" t="n">
-        <v>0.0004070661670994014</v>
+        <v>0.1350354254245758</v>
       </c>
       <c r="ER5" t="n">
-        <v>0.000145217461977154</v>
+        <v>0.06081873551011086</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.0003628374543040991</v>
+        <v>0.4034577608108521</v>
       </c>
       <c r="ET5" t="n">
-        <v>0.0006806149031035602</v>
+        <v>0.2819802463054657</v>
       </c>
       <c r="EU5" t="n">
-        <v>0.0003820891724899411</v>
+        <v>0.06290479749441147</v>
       </c>
       <c r="EV5" t="n">
-        <v>0.000304587185382843</v>
+        <v>0.172659307718277</v>
       </c>
       <c r="EW5" t="n">
-        <v>0.0004929012502543628</v>
+        <v>0.110944077372551</v>
       </c>
       <c r="EX5" t="n">
-        <v>0.0004914956516586244</v>
+        <v>0.02002118527889252</v>
       </c>
       <c r="EY5" t="n">
-        <v>0.0001629173057153821</v>
+        <v>0.02407270669937134</v>
       </c>
       <c r="EZ5" t="n">
-        <v>0.0003446596674621105</v>
+        <v>0.07750805467367172</v>
       </c>
       <c r="FA5" t="n">
-        <v>0.0001093987375497818</v>
+        <v>0.08316992968320847</v>
       </c>
       <c r="FB5" t="n">
-        <v>0.0003591566055547446</v>
+        <v>0.2142137140035629</v>
       </c>
       <c r="FC5" t="n">
-        <v>4.288083437131718e-05</v>
+        <v>0.332357794046402</v>
       </c>
       <c r="FD5" t="n">
-        <v>5.350761057343334e-06</v>
+        <v>0.006019964814186096</v>
       </c>
       <c r="FE5" t="n">
-        <v>9.699625661596656e-05</v>
+        <v>0.05130678415298462</v>
       </c>
       <c r="FF5" t="n">
-        <v>0.0001724551839288324</v>
+        <v>0.04351656138896942</v>
       </c>
       <c r="FG5" t="n">
-        <v>0.0001452930155210197</v>
+        <v>0.154111236333847</v>
       </c>
       <c r="FH5" t="n">
-        <v>9.446287003811449e-05</v>
+        <v>0.0106520764529705</v>
       </c>
       <c r="FI5" t="n">
-        <v>0.0005713353748433292</v>
+        <v>0.4838331639766693</v>
       </c>
       <c r="FJ5" t="n">
-        <v>0.0005332407308742404</v>
+        <v>0.2075470983982086</v>
       </c>
       <c r="FK5" t="n">
-        <v>0.0001373717386741191</v>
+        <v>0.1846739202737808</v>
       </c>
       <c r="FL5" t="n">
-        <v>0.0005651985411532223</v>
+        <v>0.4455349445343018</v>
       </c>
       <c r="FM5" t="n">
-        <v>1.916375913424417e-05</v>
+        <v>0.1219223365187645</v>
       </c>
       <c r="FN5" t="n">
-        <v>0.0001721464213915169</v>
+        <v>0.1336340308189392</v>
       </c>
       <c r="FO5" t="n">
-        <v>0.0005885006976313889</v>
+        <v>0.06182265281677246</v>
       </c>
       <c r="FP5" t="n">
-        <v>5.535730451811105e-08</v>
+        <v>0.4317002594470978</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0.0007817141013219953</v>
+        <v>0.123851090669632</v>
       </c>
       <c r="FR5" t="n">
-        <v>0.0001151336909970269</v>
+        <v>0.5156858563423157</v>
       </c>
       <c r="FS5" t="n">
-        <v>0.0003750805626623333</v>
+        <v>0.1938790529966354</v>
       </c>
       <c r="FT5" t="n">
-        <v>0.0002500844711903483</v>
+        <v>0.3399427831172943</v>
       </c>
       <c r="FU5" t="n">
-        <v>0.0001840095355873927</v>
+        <v>0.3179690837860107</v>
       </c>
       <c r="FV5" t="n">
-        <v>0.0006270580925047398</v>
+        <v>0.3452074825763702</v>
       </c>
       <c r="FW5" t="n">
-        <v>0.0002570597280282527</v>
+        <v>0.222194641828537</v>
       </c>
       <c r="FX5" t="n">
-        <v>0.0002809425350278616</v>
+        <v>0.1810528635978699</v>
       </c>
       <c r="FY5" t="n">
-        <v>0.0004512351006269455</v>
+        <v>0.005612693727016449</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0.0002334860910195857</v>
+        <v>0.1449224948883057</v>
       </c>
       <c r="GA5" t="n">
-        <v>0.0006971940747462213</v>
+        <v>0.09246557950973511</v>
       </c>
       <c r="GB5" t="n">
-        <v>0.0002842181129381061</v>
+        <v>0.04106582701206207</v>
       </c>
       <c r="GC5" t="n">
-        <v>0.000186432502232492</v>
+        <v>0.1329216212034225</v>
       </c>
       <c r="GD5" t="n">
-        <v>0.001120173372328281</v>
+        <v>0.2142351865768433</v>
       </c>
       <c r="GE5" t="n">
-        <v>0.0002521679853089154</v>
+        <v>0.5551142692565918</v>
       </c>
       <c r="GF5" t="n">
-        <v>0.0004432591376826167</v>
+        <v>0.5831213593482971</v>
       </c>
       <c r="GG5" t="n">
-        <v>0.0001299631694564596</v>
+        <v>0.1124376133084297</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.078701800201088e-05</v>
+        <v>0.09875014424324036</v>
       </c>
       <c r="B6" t="n">
-        <v>0.001363836927339435</v>
+        <v>0.3733185529708862</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0002152466331608593</v>
+        <v>0.02106652036309242</v>
       </c>
       <c r="D6" t="n">
-        <v>0.001748901093378663</v>
+        <v>0.1359941363334656</v>
       </c>
       <c r="E6" t="n">
-        <v>0.000385226245271042</v>
+        <v>0.08525127172470093</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0001689686469035223</v>
+        <v>0.1210936158895493</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0003975242434535176</v>
+        <v>0.01397059578448534</v>
       </c>
       <c r="H6" t="n">
-        <v>6.476145063061267e-05</v>
+        <v>0.0223118606954813</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0001549317385070026</v>
+        <v>0.04375005885958672</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0001800592144718394</v>
+        <v>0.09483599662780762</v>
       </c>
       <c r="K6" t="n">
-        <v>0.001505707972683012</v>
+        <v>0.273461788892746</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0003316907095722854</v>
+        <v>0.004947487264871597</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0009147885721176863</v>
+        <v>0.09345594048500061</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0005028541781939566</v>
+        <v>0.07870632410049438</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0006428394699469209</v>
+        <v>0.07200823724269867</v>
       </c>
       <c r="P6" t="n">
-        <v>0.0005487225134856999</v>
+        <v>0.0469229482114315</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.742380118230358e-05</v>
+        <v>0.09326654672622681</v>
       </c>
       <c r="R6" t="n">
-        <v>8.034132770262659e-05</v>
+        <v>0.03970764577388763</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0004590796306729317</v>
+        <v>0.01656676083803177</v>
       </c>
       <c r="T6" t="n">
-        <v>0.0002618522848933935</v>
+        <v>0.03486168384552002</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0001074476822395809</v>
+        <v>0.002980606630444527</v>
       </c>
       <c r="V6" t="n">
-        <v>0.0003180085914209485</v>
+        <v>0.02546286582946777</v>
       </c>
       <c r="W6" t="n">
-        <v>0.001103583257645369</v>
+        <v>0.04516217857599258</v>
       </c>
       <c r="X6" t="n">
-        <v>0.0002194848202634603</v>
+        <v>0.06212397664785385</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.00016892516578082</v>
+        <v>0.04920786619186401</v>
       </c>
       <c r="Z6" t="n">
-        <v>4.51079395134002e-05</v>
+        <v>0.04785997793078423</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.0008227605721913278</v>
+        <v>0.02542675659060478</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.0001690849603619426</v>
+        <v>0.00925537571310997</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.0003757831873372197</v>
+        <v>0.001369854900985956</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.0004546389682218432</v>
+        <v>0.02948649227619171</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.0004692702786996961</v>
+        <v>0.03635232523083687</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.0002875933423638344</v>
+        <v>0.001877767848782241</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.0001669828343437985</v>
+        <v>0.01228309143334627</v>
       </c>
       <c r="AH6" t="n">
-        <v>5.659610906150192e-05</v>
+        <v>0.01753959432244301</v>
       </c>
       <c r="AI6" t="n">
-        <v>9.21973041840829e-05</v>
+        <v>0.01543451752513647</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.0005334339221008122</v>
+        <v>0.01028455700725317</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.0007611026521772146</v>
+        <v>0.04414466023445129</v>
       </c>
       <c r="AL6" t="n">
-        <v>1.464190427213907e-05</v>
+        <v>0.04842742905020714</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.0001160177052952349</v>
+        <v>0.03547100722789764</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.0001451096322853118</v>
+        <v>0.01073121652007103</v>
       </c>
       <c r="AO6" t="n">
-        <v>9.798991959542036e-05</v>
+        <v>0.02154276147484779</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.0002819049404934049</v>
+        <v>0.03832465410232544</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.0003063411568291485</v>
+        <v>0.008004730567336082</v>
       </c>
       <c r="AR6" t="n">
-        <v>0.0001598886883584782</v>
+        <v>0.0001282971352338791</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.0001055958564393222</v>
+        <v>0.04515714943408966</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.0008372048614546657</v>
+        <v>0.03491587191820145</v>
       </c>
       <c r="AU6" t="n">
-        <v>0.001307771890424192</v>
+        <v>0.2275362312793732</v>
       </c>
       <c r="AV6" t="n">
-        <v>0.0004794608685187995</v>
+        <v>0.007285936735570431</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.0003028931678272784</v>
+        <v>0.0193891879171133</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.0009538260055705905</v>
+        <v>0.00644323555752635</v>
       </c>
       <c r="AY6" t="n">
-        <v>0.000357184064341709</v>
+        <v>0.04413754492998123</v>
       </c>
       <c r="AZ6" t="n">
-        <v>7.54441280150786e-05</v>
+        <v>0.008524034172296524</v>
       </c>
       <c r="BA6" t="n">
-        <v>0.000481718365335837</v>
+        <v>0.03107452020049095</v>
       </c>
       <c r="BB6" t="n">
-        <v>0.0002462339180056006</v>
+        <v>0.04805070534348488</v>
       </c>
       <c r="BC6" t="n">
-        <v>0.0002341340587008744</v>
+        <v>0.03999143093824387</v>
       </c>
       <c r="BD6" t="n">
-        <v>0.0002134152309736237</v>
+        <v>0.02330925315618515</v>
       </c>
       <c r="BE6" t="n">
-        <v>5.57306848349981e-05</v>
+        <v>0.04324539005756378</v>
       </c>
       <c r="BF6" t="n">
-        <v>0.0006517265574075282</v>
+        <v>0.01406586542725563</v>
       </c>
       <c r="BG6" t="n">
-        <v>8.46206967253238e-05</v>
+        <v>0.1317573636770248</v>
       </c>
       <c r="BH6" t="n">
-        <v>0.0004105220432393253</v>
+        <v>0.01154956128448248</v>
       </c>
       <c r="BI6" t="n">
-        <v>0.000376993149984628</v>
+        <v>0.03290168568491936</v>
       </c>
       <c r="BJ6" t="n">
-        <v>0.0001314906548941508</v>
+        <v>0.09055016934871674</v>
       </c>
       <c r="BK6" t="n">
-        <v>6.251494778553024e-05</v>
+        <v>0.04980707168579102</v>
       </c>
       <c r="BL6" t="n">
-        <v>0.0004058940103277564</v>
+        <v>0.01079657021909952</v>
       </c>
       <c r="BM6" t="n">
-        <v>0.0005946411984041333</v>
+        <v>0.04350334405899048</v>
       </c>
       <c r="BN6" t="n">
-        <v>0.0002266896481160074</v>
+        <v>0.02362490631639957</v>
       </c>
       <c r="BO6" t="n">
-        <v>0.0002273260033689439</v>
+        <v>0.009638654068112373</v>
       </c>
       <c r="BP6" t="n">
-        <v>7.800678577041253e-05</v>
+        <v>0.02364252507686615</v>
       </c>
       <c r="BQ6" t="n">
-        <v>0.0005774404271505773</v>
+        <v>0.0193284023553133</v>
       </c>
       <c r="BR6" t="n">
-        <v>7.762950554024428e-05</v>
+        <v>0.006907755974680185</v>
       </c>
       <c r="BS6" t="n">
-        <v>0.000228480450459756</v>
+        <v>0.0006018008571118116</v>
       </c>
       <c r="BT6" t="n">
-        <v>0.000269378797383979</v>
+        <v>0.04350157454609871</v>
       </c>
       <c r="BU6" t="n">
-        <v>0.001169494353234768</v>
+        <v>0.01551893446594477</v>
       </c>
       <c r="BV6" t="n">
-        <v>0.0002947829780168831</v>
+        <v>0.1244997978210449</v>
       </c>
       <c r="BW6" t="n">
-        <v>0.0004015459853690118</v>
+        <v>0.04229734838008881</v>
       </c>
       <c r="BX6" t="n">
-        <v>0.0003427322953939438</v>
+        <v>0.01934542879462242</v>
       </c>
       <c r="BY6" t="n">
-        <v>0.0001147794173448347</v>
+        <v>0.0345274806022644</v>
       </c>
       <c r="BZ6" t="n">
-        <v>0.00047524060937576</v>
+        <v>0.01315375044941902</v>
       </c>
       <c r="CA6" t="n">
-        <v>8.903913840185851e-05</v>
+        <v>0.03056930750608444</v>
       </c>
       <c r="CB6" t="n">
-        <v>0.0005537259276024997</v>
+        <v>0.01360300555825233</v>
       </c>
       <c r="CC6" t="n">
-        <v>0.0003634805034380406</v>
+        <v>0.01451683510094881</v>
       </c>
       <c r="CD6" t="n">
-        <v>0.0005497382371686399</v>
+        <v>0.0008503301069140434</v>
       </c>
       <c r="CE6" t="n">
-        <v>0.0002835875202436</v>
+        <v>0.06316529214382172</v>
       </c>
       <c r="CF6" t="n">
-        <v>0.0001172125048469752</v>
+        <v>0.02995507419109344</v>
       </c>
       <c r="CG6" t="n">
-        <v>0.0003579356125555933</v>
+        <v>0.02840094268321991</v>
       </c>
       <c r="CH6" t="n">
-        <v>0.0002436733338981867</v>
+        <v>0.02840712293982506</v>
       </c>
       <c r="CI6" t="n">
-        <v>5.559470082516782e-06</v>
+        <v>0.02916626073420048</v>
       </c>
       <c r="CJ6" t="n">
-        <v>5.67705137655139e-06</v>
+        <v>0.02081206068396568</v>
       </c>
       <c r="CK6" t="n">
-        <v>3.156742604915053e-05</v>
+        <v>0.008318689651787281</v>
       </c>
       <c r="CL6" t="n">
-        <v>5.39474785909988e-05</v>
+        <v>0.01229891180992126</v>
       </c>
       <c r="CM6" t="n">
-        <v>8.814583998173475e-05</v>
+        <v>0.05238167196512222</v>
       </c>
       <c r="CN6" t="n">
-        <v>0.0001306593476328999</v>
+        <v>0.07363087683916092</v>
       </c>
       <c r="CO6" t="n">
-        <v>0.0004114522598683834</v>
+        <v>0.02446077018976212</v>
       </c>
       <c r="CP6" t="n">
-        <v>0.0003032305103261024</v>
+        <v>0.02195382677018642</v>
       </c>
       <c r="CQ6" t="n">
-        <v>0.000331737392116338</v>
+        <v>0.007303024642169476</v>
       </c>
       <c r="CR6" t="n">
-        <v>0.001107508200220764</v>
+        <v>0.08883031457662582</v>
       </c>
       <c r="CS6" t="n">
-        <v>5.254408461041749e-05</v>
+        <v>0.08318787813186646</v>
       </c>
       <c r="CT6" t="n">
-        <v>6.233104795683175e-05</v>
+        <v>0.0602983720600605</v>
       </c>
       <c r="CU6" t="n">
-        <v>0.0001856395247159526</v>
+        <v>0.03071506135165691</v>
       </c>
       <c r="CV6" t="n">
-        <v>0.0005391160375438631</v>
+        <v>0.002644416876137257</v>
       </c>
       <c r="CW6" t="n">
-        <v>0.0002232236147392541</v>
+        <v>0.06967784464359283</v>
       </c>
       <c r="CX6" t="n">
-        <v>1.725888978398871e-05</v>
+        <v>0.02011752314865589</v>
       </c>
       <c r="CY6" t="n">
-        <v>0.0003969442332163453</v>
+        <v>0.04061001911759377</v>
       </c>
       <c r="CZ6" t="n">
-        <v>0.0003501095925457776</v>
+        <v>0.01721718534827232</v>
       </c>
       <c r="DA6" t="n">
-        <v>0.0001909935672301799</v>
+        <v>0.0344240590929985</v>
       </c>
       <c r="DB6" t="n">
-        <v>4.534324398264289e-05</v>
+        <v>0.02627476304769516</v>
       </c>
       <c r="DC6" t="n">
-        <v>1.966838135558646e-05</v>
+        <v>0.01146291475743055</v>
       </c>
       <c r="DD6" t="n">
-        <v>7.158653897931799e-05</v>
+        <v>0.004579511471092701</v>
       </c>
       <c r="DE6" t="n">
-        <v>0.0009379762341268361</v>
+        <v>0.05069079995155334</v>
       </c>
       <c r="DF6" t="n">
-        <v>0.001425934140570462</v>
+        <v>0.08786540478467941</v>
       </c>
       <c r="DG6" t="n">
-        <v>4.946629633195698e-05</v>
+        <v>0.09720692038536072</v>
       </c>
       <c r="DH6" t="n">
-        <v>0.0001578683877596632</v>
+        <v>0.08900723606348038</v>
       </c>
       <c r="DI6" t="n">
-        <v>0.0007479081396013498</v>
+        <v>0.04776998609304428</v>
       </c>
       <c r="DJ6" t="n">
-        <v>0.0007303666207008064</v>
+        <v>0.03753890097141266</v>
       </c>
       <c r="DK6" t="n">
-        <v>0.0002000949461944401</v>
+        <v>0.01929802633821964</v>
       </c>
       <c r="DL6" t="n">
-        <v>0.0005007473519071937</v>
+        <v>0.0243612714111805</v>
       </c>
       <c r="DM6" t="n">
-        <v>4.968790017301217e-05</v>
+        <v>0.008646292611956596</v>
       </c>
       <c r="DN6" t="n">
-        <v>0.0003533608687575907</v>
+        <v>0.02972044423222542</v>
       </c>
       <c r="DO6" t="n">
-        <v>0.0001737041748128831</v>
+        <v>0.02499304711818695</v>
       </c>
       <c r="DP6" t="n">
-        <v>0.0001401566551066935</v>
+        <v>0.0115250376984477</v>
       </c>
       <c r="DQ6" t="n">
-        <v>0.0004329994553700089</v>
+        <v>0.002072322182357311</v>
       </c>
       <c r="DR6" t="n">
-        <v>0.0005298028117977083</v>
+        <v>0.006454551592469215</v>
       </c>
       <c r="DS6" t="n">
-        <v>0.0004424407961778343</v>
+        <v>0.03055273555219173</v>
       </c>
       <c r="DT6" t="n">
-        <v>0.0001054217282216996</v>
+        <v>0.0590696707367897</v>
       </c>
       <c r="DU6" t="n">
-        <v>0.000421056232880801</v>
+        <v>0.02163398638367653</v>
       </c>
       <c r="DV6" t="n">
-        <v>4.558468572213314e-05</v>
+        <v>0.04423049092292786</v>
       </c>
       <c r="DW6" t="n">
-        <v>5.339105700841174e-05</v>
+        <v>0.02646393328905106</v>
       </c>
       <c r="DX6" t="n">
-        <v>0.0008501851698383689</v>
+        <v>0.02587569132447243</v>
       </c>
       <c r="DY6" t="n">
-        <v>0.0001015262605505995</v>
+        <v>0.07754711806774139</v>
       </c>
       <c r="DZ6" t="n">
-        <v>0.000604761007707566</v>
+        <v>0.002814292442053556</v>
       </c>
       <c r="EA6" t="n">
-        <v>0.0002381684025749564</v>
+        <v>0.02435628324747086</v>
       </c>
       <c r="EB6" t="n">
-        <v>0.0001471946015954018</v>
+        <v>0.02009500376880169</v>
       </c>
       <c r="EC6" t="n">
-        <v>0.0002228603698313236</v>
+        <v>0.02264748327434063</v>
       </c>
       <c r="ED6" t="n">
-        <v>0.0005788526614196599</v>
+        <v>0.04165473952889442</v>
       </c>
       <c r="EE6" t="n">
-        <v>0.0003762186388485134</v>
+        <v>0.04683631658554077</v>
       </c>
       <c r="EF6" t="n">
-        <v>0.0002898249658755958</v>
+        <v>0.0590752586722374</v>
       </c>
       <c r="EG6" t="n">
-        <v>8.245496428571641e-05</v>
+        <v>0.06599351018667221</v>
       </c>
       <c r="EH6" t="n">
-        <v>6.934176781214774e-05</v>
+        <v>0.03225098550319672</v>
       </c>
       <c r="EI6" t="n">
-        <v>0.0002692441339604557</v>
+        <v>0.005018327385187149</v>
       </c>
       <c r="EJ6" t="n">
-        <v>0.0009890755172818899</v>
+        <v>0.002762088552117348</v>
       </c>
       <c r="EK6" t="n">
-        <v>0.0002608154900372028</v>
+        <v>0.02654840052127838</v>
       </c>
       <c r="EL6" t="n">
-        <v>6.548881356138736e-05</v>
+        <v>0.01344158500432968</v>
       </c>
       <c r="EM6" t="n">
-        <v>0.0003034993715118617</v>
+        <v>0.009199557825922966</v>
       </c>
       <c r="EN6" t="n">
-        <v>0.0002881766413338482</v>
+        <v>0.00670168362557888</v>
       </c>
       <c r="EO6" t="n">
-        <v>0.0004783957847394049</v>
+        <v>0.009685967117547989</v>
       </c>
       <c r="EP6" t="n">
-        <v>0.0003238086064811796</v>
+        <v>0.03610213473439217</v>
       </c>
       <c r="EQ6" t="n">
-        <v>4.076136974617839e-05</v>
+        <v>0.01602222770452499</v>
       </c>
       <c r="ER6" t="n">
-        <v>0.0004606873262673616</v>
+        <v>0.02587188966572285</v>
       </c>
       <c r="ES6" t="n">
-        <v>0.000123636084026657</v>
+        <v>0.04032672569155693</v>
       </c>
       <c r="ET6" t="n">
-        <v>0.0001961804664460942</v>
+        <v>0.06403469294309616</v>
       </c>
       <c r="EU6" t="n">
-        <v>0.0002554760430939496</v>
+        <v>0.0435185618698597</v>
       </c>
       <c r="EV6" t="n">
-        <v>6.46172657070565e-06</v>
+        <v>0.04574145749211311</v>
       </c>
       <c r="EW6" t="n">
-        <v>0.0002662583137862384</v>
+        <v>0.0659148097038269</v>
       </c>
       <c r="EX6" t="n">
-        <v>0.0005447353469207883</v>
+        <v>0.004391893744468689</v>
       </c>
       <c r="EY6" t="n">
-        <v>0.000271850498393178</v>
+        <v>0.06883606314659119</v>
       </c>
       <c r="EZ6" t="n">
-        <v>4.175021967967041e-05</v>
+        <v>0.01985910907387733</v>
       </c>
       <c r="FA6" t="n">
-        <v>0.0001406717783538625</v>
+        <v>0.02757536433637142</v>
       </c>
       <c r="FB6" t="n">
-        <v>0.0002114137314492837</v>
+        <v>0.02132682502269745</v>
       </c>
       <c r="FC6" t="n">
-        <v>0.0002891533076763153</v>
+        <v>0.03550281748175621</v>
       </c>
       <c r="FD6" t="n">
-        <v>2.048895839834586e-05</v>
+        <v>0.02803046628832817</v>
       </c>
       <c r="FE6" t="n">
-        <v>1.260921999346465e-05</v>
+        <v>0.003831172361969948</v>
       </c>
       <c r="FF6" t="n">
-        <v>1.644124131416902e-05</v>
+        <v>0.01372799184173346</v>
       </c>
       <c r="FG6" t="n">
-        <v>0.0003814187657553703</v>
+        <v>0.007817625999450684</v>
       </c>
       <c r="FH6" t="n">
-        <v>0.0005420353845693171</v>
+        <v>0.03907173499464989</v>
       </c>
       <c r="FI6" t="n">
-        <v>9.401218267157674e-05</v>
+        <v>0.04104431718587875</v>
       </c>
       <c r="FJ6" t="n">
-        <v>1.349495141766965e-05</v>
+        <v>0.03605812788009644</v>
       </c>
       <c r="FK6" t="n">
-        <v>0.0009271201561205089</v>
+        <v>0.02283789776265621</v>
       </c>
       <c r="FL6" t="n">
-        <v>0.0008295088773593307</v>
+        <v>0.01263848133385181</v>
       </c>
       <c r="FM6" t="n">
-        <v>0.0001913201558636501</v>
+        <v>0.04435921832919121</v>
       </c>
       <c r="FN6" t="n">
-        <v>8.133372466545552e-05</v>
+        <v>0.02514548785984516</v>
       </c>
       <c r="FO6" t="n">
-        <v>0.0001303513563470915</v>
+        <v>0.009979740716516972</v>
       </c>
       <c r="FP6" t="n">
-        <v>0.0005033709458075464</v>
+        <v>0.03934744745492935</v>
       </c>
       <c r="FQ6" t="n">
-        <v>0.0002743956283666193</v>
+        <v>0.01612349599599838</v>
       </c>
       <c r="FR6" t="n">
-        <v>0.0005533157382160425</v>
+        <v>0.05323993042111397</v>
       </c>
       <c r="FS6" t="n">
-        <v>0.000453905580798164</v>
+        <v>0.011835060082376</v>
       </c>
       <c r="FT6" t="n">
-        <v>0.0002942823339253664</v>
+        <v>0.02656184695661068</v>
       </c>
       <c r="FU6" t="n">
-        <v>3.072336403420195e-05</v>
+        <v>0.005711713340133429</v>
       </c>
       <c r="FV6" t="n">
-        <v>0.0001450042036594823</v>
+        <v>0.02602141536772251</v>
       </c>
       <c r="FW6" t="n">
-        <v>0.000265693583060056</v>
+        <v>0.03687456250190735</v>
       </c>
       <c r="FX6" t="n">
-        <v>0.0003369468031451106</v>
+        <v>0.0523531436920166</v>
       </c>
       <c r="FY6" t="n">
-        <v>0.0003087934164796025</v>
+        <v>0.05505947768688202</v>
       </c>
       <c r="FZ6" t="n">
-        <v>0.0001840456679929048</v>
+        <v>0.02501472271978855</v>
       </c>
       <c r="GA6" t="n">
-        <v>0.0006905847112648189</v>
+        <v>0.003489583730697632</v>
       </c>
       <c r="GB6" t="n">
-        <v>0.0001283579913433641</v>
+        <v>0.01558075100183487</v>
       </c>
       <c r="GC6" t="n">
-        <v>0.0001627015299163759</v>
+        <v>0.07562491297721863</v>
       </c>
       <c r="GD6" t="n">
-        <v>5.439651431515813e-06</v>
+        <v>0.01759476400911808</v>
       </c>
       <c r="GE6" t="n">
-        <v>9.316924843005836e-05</v>
+        <v>0.07676910609006882</v>
       </c>
       <c r="GF6" t="n">
-        <v>0.0007278075208887458</v>
+        <v>0.04856827110052109</v>
       </c>
       <c r="GG6" t="n">
-        <v>1.350462844129652e-05</v>
+        <v>0.08120161294937134</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.0539662167429924</v>
+        <v>0.00665046414360404</v>
       </c>
       <c r="B7" t="n">
-        <v>0.01911777444183826</v>
+        <v>0.001116710482165217</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06761231273412704</v>
+        <v>0.002847276860848069</v>
       </c>
       <c r="D7" t="n">
-        <v>0.02982739172875881</v>
+        <v>0.001869703060947359</v>
       </c>
       <c r="E7" t="n">
-        <v>0.08758269995450974</v>
+        <v>0.0125791821628809</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02055981196463108</v>
+        <v>0.001419129082933068</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02701654657721519</v>
+        <v>0.006238047033548355</v>
       </c>
       <c r="H7" t="n">
-        <v>0.04389848932623863</v>
+        <v>0.01425441913306713</v>
       </c>
       <c r="I7" t="n">
-        <v>0.009581910446286201</v>
+        <v>0.002734461333602667</v>
       </c>
       <c r="J7" t="n">
-        <v>0.03678176179528236</v>
+        <v>0.004467271268367767</v>
       </c>
       <c r="K7" t="n">
-        <v>0.01190918311476707</v>
+        <v>0.006683008745312691</v>
       </c>
       <c r="L7" t="n">
-        <v>0.08330056071281433</v>
+        <v>0.001417681807652116</v>
       </c>
       <c r="M7" t="n">
-        <v>0.05312534049153328</v>
+        <v>0.01165584567934275</v>
       </c>
       <c r="N7" t="n">
-        <v>0.08677206933498383</v>
+        <v>0.008221483789384365</v>
       </c>
       <c r="O7" t="n">
-        <v>0.009829184040427208</v>
+        <v>0.0142745990306139</v>
       </c>
       <c r="P7" t="n">
-        <v>0.03641431406140327</v>
+        <v>0.01160795427858829</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.07065237313508987</v>
+        <v>0.006647869013249874</v>
       </c>
       <c r="R7" t="n">
-        <v>0.01406655460596085</v>
+        <v>0.003579831914976239</v>
       </c>
       <c r="S7" t="n">
-        <v>0.007879774086177349</v>
+        <v>0.003195577766746283</v>
       </c>
       <c r="T7" t="n">
-        <v>0.01734535209834576</v>
+        <v>0.006471121683716774</v>
       </c>
       <c r="U7" t="n">
-        <v>0.02084279432892799</v>
+        <v>0.00277200061827898</v>
       </c>
       <c r="V7" t="n">
-        <v>0.002812905237078667</v>
+        <v>0.003986463416367769</v>
       </c>
       <c r="W7" t="n">
-        <v>0.000452942680567503</v>
+        <v>0.01541475858539343</v>
       </c>
       <c r="X7" t="n">
-        <v>0.02226567268371582</v>
+        <v>0.004720321856439114</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.03752925246953964</v>
+        <v>0.003360590897500515</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.04032639786601067</v>
+        <v>0.01055874675512314</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.02255739271640778</v>
+        <v>0.00668419012799859</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.01038952544331551</v>
+        <v>0.007259007543325424</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.0631224736571312</v>
+        <v>0.00435356330126524</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.05394162610173225</v>
+        <v>0.0094942981377244</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.02622607164084911</v>
+        <v>0.0003081008326262236</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.03321130946278572</v>
+        <v>0.0101599358022213</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.01300886925309896</v>
+        <v>0.007079281378537416</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.01741531305015087</v>
+        <v>0.002074883785098791</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.01646817475557327</v>
+        <v>0.0008418834186159074</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.004162936471402645</v>
+        <v>0.003472691169008613</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.01090370491147041</v>
+        <v>0.003206693800166249</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.02816537767648697</v>
+        <v>0.007207242771983147</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.0188716221600771</v>
+        <v>0.0006433828384615481</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.001228960463777184</v>
+        <v>0.004202826879918575</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.02670866623520851</v>
+        <v>0.007989171892404556</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.03062204644083977</v>
+        <v>0.003036991227418184</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.008656471967697144</v>
+        <v>0.0009552346309646964</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.02319561876356602</v>
+        <v>0.004994959570467472</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.01289805583655834</v>
+        <v>0.0006856608670204878</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.04188657179474831</v>
+        <v>0.003347201272845268</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.03290712088346481</v>
+        <v>0.008710254915058613</v>
       </c>
       <c r="AV7" t="n">
-        <v>4.601478576660156e-05</v>
+        <v>0.008359155617654324</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.02225026115775108</v>
+        <v>0.003118282882496715</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.04769638180732727</v>
+        <v>0.01211552508175373</v>
       </c>
       <c r="AY7" t="n">
-        <v>0.008882492780685425</v>
+        <v>0.008647249080240726</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0.03072681277990341</v>
+        <v>0.003265346167609096</v>
       </c>
       <c r="BA7" t="n">
-        <v>0.01702572032809258</v>
+        <v>0.0008052380289882421</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.02745308168232441</v>
+        <v>0.004018293228000402</v>
       </c>
       <c r="BC7" t="n">
-        <v>0.01285102777183056</v>
+        <v>0.003823373233899474</v>
       </c>
       <c r="BD7" t="n">
-        <v>0.006016762927174568</v>
+        <v>8.971610805019736e-05</v>
       </c>
       <c r="BE7" t="n">
-        <v>0.008387763053178787</v>
+        <v>0.001488642068579793</v>
       </c>
       <c r="BF7" t="n">
-        <v>0.06526026129722595</v>
+        <v>0.0008108841138891876</v>
       </c>
       <c r="BG7" t="n">
-        <v>0.02667955681681633</v>
+        <v>0.001398212974891067</v>
       </c>
       <c r="BH7" t="n">
-        <v>0.02021777257323265</v>
+        <v>0.0009914344409480691</v>
       </c>
       <c r="BI7" t="n">
-        <v>0.009659800678491592</v>
+        <v>0.004376699216663837</v>
       </c>
       <c r="BJ7" t="n">
-        <v>0.009558143094182014</v>
+        <v>0.005387528333812952</v>
       </c>
       <c r="BK7" t="n">
-        <v>0.02818741649389267</v>
+        <v>0.00571070471778512</v>
       </c>
       <c r="BL7" t="n">
-        <v>0.02268465980887413</v>
+        <v>0.00845557264983654</v>
       </c>
       <c r="BM7" t="n">
-        <v>0.02323289774358273</v>
+        <v>0.007810750976204872</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.03820311278104782</v>
+        <v>0.002615307923406363</v>
       </c>
       <c r="BO7" t="n">
-        <v>0.01543544791638851</v>
+        <v>0.00298725557513535</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.004816858563572168</v>
+        <v>0.00929359532892704</v>
       </c>
       <c r="BQ7" t="n">
-        <v>0.008128415793180466</v>
+        <v>0.003107177093625069</v>
       </c>
       <c r="BR7" t="n">
-        <v>0.01117227226495743</v>
+        <v>0.001598137663677335</v>
       </c>
       <c r="BS7" t="n">
-        <v>0.03222856298089027</v>
+        <v>0.003870013635605574</v>
       </c>
       <c r="BT7" t="n">
-        <v>0.02046879753470421</v>
+        <v>0.003307190723717213</v>
       </c>
       <c r="BU7" t="n">
-        <v>0.0120703186839819</v>
+        <v>0.001734970603138208</v>
       </c>
       <c r="BV7" t="n">
-        <v>0.0008219110313802958</v>
+        <v>0.0006243709940463305</v>
       </c>
       <c r="BW7" t="n">
-        <v>0.03230396285653114</v>
+        <v>0.001224106410518289</v>
       </c>
       <c r="BX7" t="n">
-        <v>0.005343539174646139</v>
+        <v>0.002631957177072763</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.01203585788607597</v>
+        <v>0.01661511138081551</v>
       </c>
       <c r="BZ7" t="n">
-        <v>0.001616276102140546</v>
+        <v>0.002393163274973631</v>
       </c>
       <c r="CA7" t="n">
-        <v>0.006826095283031464</v>
+        <v>0.00152062950655818</v>
       </c>
       <c r="CB7" t="n">
-        <v>0.02801042795181274</v>
+        <v>0.005545060150325298</v>
       </c>
       <c r="CC7" t="n">
-        <v>0.03255990892648697</v>
+        <v>0.002904907800257206</v>
       </c>
       <c r="CD7" t="n">
-        <v>0.014782446436584</v>
+        <v>0.001496142358519137</v>
       </c>
       <c r="CE7" t="n">
-        <v>0.007728401105850935</v>
+        <v>0.0003815154195763171</v>
       </c>
       <c r="CF7" t="n">
-        <v>0.002648868132382631</v>
+        <v>0.0009492484387010336</v>
       </c>
       <c r="CG7" t="n">
-        <v>0.006359270308166742</v>
+        <v>0.002091417787596583</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.03121808916330338</v>
+        <v>0.00128994055557996</v>
       </c>
       <c r="CI7" t="n">
-        <v>0.007474253885447979</v>
+        <v>0.0008039589156396687</v>
       </c>
       <c r="CJ7" t="n">
-        <v>0.01122944243252277</v>
+        <v>0.0003291275934316218</v>
       </c>
       <c r="CK7" t="n">
-        <v>0.01083362475037575</v>
+        <v>0.001729955081827939</v>
       </c>
       <c r="CL7" t="n">
-        <v>0.003715779166668653</v>
+        <v>0.0006413082592189312</v>
       </c>
       <c r="CM7" t="n">
-        <v>0.01028089504688978</v>
+        <v>0.002373969182372093</v>
       </c>
       <c r="CN7" t="n">
-        <v>0.0009415093809366226</v>
+        <v>0.00323067931458354</v>
       </c>
       <c r="CO7" t="n">
-        <v>0.03675746917724609</v>
+        <v>0.008668145164847374</v>
       </c>
       <c r="CP7" t="n">
-        <v>0.004696645773947239</v>
+        <v>0.001111327903345227</v>
       </c>
       <c r="CQ7" t="n">
-        <v>0.008744922466576099</v>
+        <v>0.0003599231131374836</v>
       </c>
       <c r="CR7" t="n">
-        <v>0.03684839606285095</v>
+        <v>0.00400099903345108</v>
       </c>
       <c r="CS7" t="n">
-        <v>0.002805801574140787</v>
+        <v>0.004227444529533386</v>
       </c>
       <c r="CT7" t="n">
-        <v>0.006123571190983057</v>
+        <v>0.007278613746166229</v>
       </c>
       <c r="CU7" t="n">
-        <v>0.006812671199440956</v>
+        <v>0.01153210923075676</v>
       </c>
       <c r="CV7" t="n">
-        <v>0.01589176803827286</v>
+        <v>0.0007429206743836403</v>
       </c>
       <c r="CW7" t="n">
-        <v>0.01714634336531162</v>
+        <v>0.0003654247266240418</v>
       </c>
       <c r="CX7" t="n">
-        <v>0.01144962664693594</v>
+        <v>0.0003303394478280097</v>
       </c>
       <c r="CY7" t="n">
-        <v>0.003361990209668875</v>
+        <v>0.0005919592804275453</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.02059608325362206</v>
+        <v>0.001286227023229003</v>
       </c>
       <c r="DA7" t="n">
-        <v>0.01119537930935621</v>
+        <v>8.2263199146837e-05</v>
       </c>
       <c r="DB7" t="n">
-        <v>0.005112086422741413</v>
+        <v>0.001356548978947103</v>
       </c>
       <c r="DC7" t="n">
-        <v>0.004557237960398197</v>
+        <v>0.0009949795203283429</v>
       </c>
       <c r="DD7" t="n">
-        <v>0.001580930082127452</v>
+        <v>0.0004654954536817968</v>
       </c>
       <c r="DE7" t="n">
-        <v>0.0006256457418203354</v>
+        <v>0.008460636250674725</v>
       </c>
       <c r="DF7" t="n">
-        <v>0.06207608804106712</v>
+        <v>0.003843371756374836</v>
       </c>
       <c r="DG7" t="n">
-        <v>0.01723247207701206</v>
+        <v>0.006074460223317146</v>
       </c>
       <c r="DH7" t="n">
-        <v>0.04101566597819328</v>
+        <v>0.002526763826608658</v>
       </c>
       <c r="DI7" t="n">
-        <v>0.02101389318704605</v>
+        <v>0.001076192129403353</v>
       </c>
       <c r="DJ7" t="n">
-        <v>0.01278301328420639</v>
+        <v>0.01056934520602226</v>
       </c>
       <c r="DK7" t="n">
-        <v>0.005181116051971912</v>
+        <v>0.012439358048141</v>
       </c>
       <c r="DL7" t="n">
-        <v>0.004383501131087542</v>
+        <v>0.007056730799376965</v>
       </c>
       <c r="DM7" t="n">
-        <v>0.003026950173079967</v>
+        <v>0.001667089993134141</v>
       </c>
       <c r="DN7" t="n">
-        <v>0.01126294024288654</v>
+        <v>0.0004645220469683409</v>
       </c>
       <c r="DO7" t="n">
-        <v>0.01101216860115528</v>
+        <v>0.008750602602958679</v>
       </c>
       <c r="DP7" t="n">
-        <v>0.006375222932547331</v>
+        <v>0.01474424917250872</v>
       </c>
       <c r="DQ7" t="n">
-        <v>0.005614160560071468</v>
+        <v>0.008688080124557018</v>
       </c>
       <c r="DR7" t="n">
-        <v>0.02421526424586773</v>
+        <v>0.007498118560761213</v>
       </c>
       <c r="DS7" t="n">
-        <v>0.03856099024415016</v>
+        <v>0.0150451110675931</v>
       </c>
       <c r="DT7" t="n">
-        <v>0.001518898410722613</v>
+        <v>0.0009200145723298192</v>
       </c>
       <c r="DU7" t="n">
-        <v>0.03210397437214851</v>
+        <v>0.008549305610358715</v>
       </c>
       <c r="DV7" t="n">
-        <v>0.02866356447339058</v>
+        <v>0.00497518852353096</v>
       </c>
       <c r="DW7" t="n">
-        <v>0.006650487892329693</v>
+        <v>0.006067200563848019</v>
       </c>
       <c r="DX7" t="n">
-        <v>0.03825590014457703</v>
+        <v>0.007448386400938034</v>
       </c>
       <c r="DY7" t="n">
-        <v>0.01318194530904293</v>
+        <v>0.008010484278202057</v>
       </c>
       <c r="DZ7" t="n">
-        <v>0.0009260717779397964</v>
+        <v>0.01018871925771236</v>
       </c>
       <c r="EA7" t="n">
-        <v>0.01684283465147018</v>
+        <v>0.008925884030759335</v>
       </c>
       <c r="EB7" t="n">
-        <v>0.02673511020839214</v>
+        <v>0.009811357595026493</v>
       </c>
       <c r="EC7" t="n">
-        <v>0.004746229387819767</v>
+        <v>0.006630901247262955</v>
       </c>
       <c r="ED7" t="n">
-        <v>0.01388142164796591</v>
+        <v>0.007127117831259966</v>
       </c>
       <c r="EE7" t="n">
-        <v>0.01024481747299433</v>
+        <v>0.002691413275897503</v>
       </c>
       <c r="EF7" t="n">
-        <v>0.04111257940530777</v>
+        <v>0.005739550106227398</v>
       </c>
       <c r="EG7" t="n">
-        <v>0.02311945706605911</v>
+        <v>0.0008317368919961154</v>
       </c>
       <c r="EH7" t="n">
-        <v>0.009853262454271317</v>
+        <v>0.0001128048170357943</v>
       </c>
       <c r="EI7" t="n">
-        <v>0.007200146559625864</v>
+        <v>0.007078344468027353</v>
       </c>
       <c r="EJ7" t="n">
-        <v>0.01344442181289196</v>
+        <v>0.001132381381466985</v>
       </c>
       <c r="EK7" t="n">
-        <v>0.03502628207206726</v>
+        <v>0.0006099535385146737</v>
       </c>
       <c r="EL7" t="n">
-        <v>0.004865841008722782</v>
+        <v>0.0001944836403708905</v>
       </c>
       <c r="EM7" t="n">
-        <v>0.01786543615162373</v>
+        <v>0.002848620060831308</v>
       </c>
       <c r="EN7" t="n">
-        <v>0.007096572779119015</v>
+        <v>0.002267811447381973</v>
       </c>
       <c r="EO7" t="n">
-        <v>0.01216193474829197</v>
+        <v>0.004232033155858517</v>
       </c>
       <c r="EP7" t="n">
-        <v>0.01393647119402885</v>
+        <v>0.002312230644747615</v>
       </c>
       <c r="EQ7" t="n">
-        <v>0.04924089089035988</v>
+        <v>0.00833573192358017</v>
       </c>
       <c r="ER7" t="n">
-        <v>0.01832732744514942</v>
+        <v>0.002129059284925461</v>
       </c>
       <c r="ES7" t="n">
-        <v>0.01457591168582439</v>
+        <v>0.0016236687079072</v>
       </c>
       <c r="ET7" t="n">
-        <v>0.02398710884153843</v>
+        <v>0.01015457231551409</v>
       </c>
       <c r="EU7" t="n">
-        <v>0.02009021677076817</v>
+        <v>0.00599402654916048</v>
       </c>
       <c r="EV7" t="n">
-        <v>0.005283896345645189</v>
+        <v>0.003756919177249074</v>
       </c>
       <c r="EW7" t="n">
-        <v>0.02862178161740303</v>
+        <v>0.001528912573121488</v>
       </c>
       <c r="EX7" t="n">
-        <v>0.01920413784682751</v>
+        <v>0.0009472579695284367</v>
       </c>
       <c r="EY7" t="n">
-        <v>0.01582898199558258</v>
+        <v>0.0009582493221387267</v>
       </c>
       <c r="EZ7" t="n">
-        <v>0.009505117312073708</v>
+        <v>0.001180857652798295</v>
       </c>
       <c r="FA7" t="n">
-        <v>0.01297563221305609</v>
+        <v>0.0008482625707983971</v>
       </c>
       <c r="FB7" t="n">
-        <v>0.02575274556875229</v>
+        <v>0.001195437391288579</v>
       </c>
       <c r="FC7" t="n">
-        <v>0.005260011181235313</v>
+        <v>0.0007494320161640644</v>
       </c>
       <c r="FD7" t="n">
-        <v>0.00712702376767993</v>
+        <v>0.0002849973388947546</v>
       </c>
       <c r="FE7" t="n">
-        <v>0.01145552657544613</v>
+        <v>0.0003745752619579434</v>
       </c>
       <c r="FF7" t="n">
-        <v>0.003345874603837729</v>
+        <v>0.001061657327227294</v>
       </c>
       <c r="FG7" t="n">
-        <v>0.0005220398306846619</v>
+        <v>0.002170905703678727</v>
       </c>
       <c r="FH7" t="n">
-        <v>0.01605937629938126</v>
+        <v>0.00414037611335516</v>
       </c>
       <c r="FI7" t="n">
-        <v>0.02198414504528046</v>
+        <v>0.00253758393228054</v>
       </c>
       <c r="FJ7" t="n">
-        <v>0.02431665174663067</v>
+        <v>0.003055364824831486</v>
       </c>
       <c r="FK7" t="n">
-        <v>0.01021777745336294</v>
+        <v>0.001791056478396058</v>
       </c>
       <c r="FL7" t="n">
-        <v>0.04719715192914009</v>
+        <v>0.004709966480731964</v>
       </c>
       <c r="FM7" t="n">
-        <v>0.008149568922817707</v>
+        <v>0.003455010475590825</v>
       </c>
       <c r="FN7" t="n">
-        <v>0.0007425993680953979</v>
+        <v>0.0001091654412448406</v>
       </c>
       <c r="FO7" t="n">
-        <v>0.01646140776574612</v>
+        <v>0.001749976072460413</v>
       </c>
       <c r="FP7" t="n">
-        <v>0.004450980108231306</v>
+        <v>0.007787966169416904</v>
       </c>
       <c r="FQ7" t="n">
-        <v>0.05102461576461792</v>
+        <v>0.006909667048603296</v>
       </c>
       <c r="FR7" t="n">
-        <v>0.003939468879252672</v>
+        <v>0.002709898864850402</v>
       </c>
       <c r="FS7" t="n">
-        <v>0.008837921544909477</v>
+        <v>0.004918841179460287</v>
       </c>
       <c r="FT7" t="n">
-        <v>0.004280410706996918</v>
+        <v>0.0140253622084856</v>
       </c>
       <c r="FU7" t="n">
-        <v>0.0006571135018020868</v>
+        <v>0.00285639613866806</v>
       </c>
       <c r="FV7" t="n">
-        <v>0.04062068462371826</v>
+        <v>0.0206100270152092</v>
       </c>
       <c r="FW7" t="n">
-        <v>0.006607990711927414</v>
+        <v>0.01116620376706123</v>
       </c>
       <c r="FX7" t="n">
-        <v>0.02546299807727337</v>
+        <v>0.003518263110890985</v>
       </c>
       <c r="FY7" t="n">
-        <v>0.01492721308022738</v>
+        <v>0.01385180000215769</v>
       </c>
       <c r="FZ7" t="n">
-        <v>0.01084920763969421</v>
+        <v>0.004079391248524189</v>
       </c>
       <c r="GA7" t="n">
-        <v>0.0231817327439785</v>
+        <v>0.01436867192387581</v>
       </c>
       <c r="GB7" t="n">
-        <v>0.04984796047210693</v>
+        <v>0.002437456976622343</v>
       </c>
       <c r="GC7" t="n">
-        <v>0.03297850862145424</v>
+        <v>0.003959192894399166</v>
       </c>
       <c r="GD7" t="n">
-        <v>0.01465963758528233</v>
+        <v>0.007369193714112043</v>
       </c>
       <c r="GE7" t="n">
-        <v>0.01772142387926579</v>
+        <v>0.001769281225278974</v>
       </c>
       <c r="GF7" t="n">
-        <v>0.01797551847994328</v>
+        <v>0.005929267033934593</v>
       </c>
       <c r="GG7" t="n">
-        <v>0.005950360558927059</v>
+        <v>0.001055205473676324</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8.348276605829597e-05</v>
+        <v>0.01632593013346195</v>
       </c>
       <c r="B8" t="n">
-        <v>0.003393041435629129</v>
+        <v>0.03020756505429745</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0009723748662509024</v>
+        <v>0.001654656603932381</v>
       </c>
       <c r="D8" t="n">
-        <v>0.001469328301027417</v>
+        <v>0.02847655862569809</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001362209441140294</v>
+        <v>0.01203896850347519</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001055768341757357</v>
+        <v>0.02319280803203583</v>
       </c>
       <c r="G8" t="n">
-        <v>6.828813639003783e-05</v>
+        <v>0.008874433115124702</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0002172755048377439</v>
+        <v>0.002486945129930973</v>
       </c>
       <c r="I8" t="n">
-        <v>0.000838805572129786</v>
+        <v>0.006228677928447723</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0002189131919294596</v>
+        <v>0.01639260165393353</v>
       </c>
       <c r="K8" t="n">
-        <v>0.002521920250728726</v>
+        <v>0.02339841239154339</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0007834392599761486</v>
+        <v>0.003180254716426134</v>
       </c>
       <c r="M8" t="n">
-        <v>0.001015131245367229</v>
+        <v>0.02580136246979237</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0003468540089670569</v>
+        <v>0.004734838381409645</v>
       </c>
       <c r="O8" t="n">
-        <v>0.00138146011158824</v>
+        <v>0.03425497561693192</v>
       </c>
       <c r="P8" t="n">
-        <v>0.0001422787318006158</v>
+        <v>0.006915253587067127</v>
       </c>
       <c r="Q8" t="n">
-        <v>5.214532211539336e-05</v>
+        <v>0.01603187806904316</v>
       </c>
       <c r="R8" t="n">
-        <v>0.001792613184079528</v>
+        <v>0.01105029229074717</v>
       </c>
       <c r="S8" t="n">
-        <v>0.0001620200055185705</v>
+        <v>0.0001883748918771744</v>
       </c>
       <c r="T8" t="n">
-        <v>0.0002625632623676211</v>
+        <v>0.002001411281526089</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0002858086954802275</v>
+        <v>0.005073677748441696</v>
       </c>
       <c r="V8" t="n">
-        <v>0.000190949605894275</v>
+        <v>0.0004136190982535481</v>
       </c>
       <c r="W8" t="n">
-        <v>0.0007334966212511063</v>
+        <v>0.008796930313110352</v>
       </c>
       <c r="X8" t="n">
-        <v>5.792839510831982e-05</v>
+        <v>0.0002161803131457418</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.463946869596839e-06</v>
+        <v>0.007385843433439732</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.0003912235260941088</v>
+        <v>0.0007100258953869343</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.000380259589292109</v>
+        <v>0.01069172285497189</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.0005536694079637527</v>
+        <v>0.00397962424904108</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.00060610705986619</v>
+        <v>0.005244867410510778</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.0005221801111474633</v>
+        <v>0.001222898834384978</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.0002442100958433002</v>
+        <v>0.0008260513423010707</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.0008683692431077361</v>
+        <v>0.003608642611652613</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.0003455323458183557</v>
+        <v>0.001124895759858191</v>
       </c>
       <c r="AH8" t="n">
-        <v>3.706468487507664e-05</v>
+        <v>0.008350728079676628</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.0003760350809898227</v>
+        <v>0.0007468939293175936</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.000786801683716476</v>
+        <v>0.006741167977452278</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.0005785035318695009</v>
+        <v>0.002806156175211072</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.000359248137101531</v>
+        <v>0.01102279312908649</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.000112446810817346</v>
+        <v>0.005321371369063854</v>
       </c>
       <c r="AN8" t="n">
-        <v>2.330910501768813e-05</v>
+        <v>0.0001759149017743766</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.000393874041037634</v>
+        <v>0.008803487755358219</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.000127884210087359</v>
+        <v>0.002460701391100883</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.0003331640909891576</v>
+        <v>0.001375099876895547</v>
       </c>
       <c r="AR8" t="n">
-        <v>2.692414636840113e-05</v>
+        <v>0.002275399165228009</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.0002558581181801856</v>
+        <v>0.005881114397197962</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.001154623343609273</v>
+        <v>0.004007213748991489</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.002389559987932444</v>
+        <v>0.02315731532871723</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.0004907259717583656</v>
+        <v>0.0005951945204287767</v>
       </c>
       <c r="AW8" t="n">
-        <v>0.000241629924857989</v>
+        <v>0.01167852710932493</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.001743907458148897</v>
+        <v>0.00856250524520874</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.0009142842027358711</v>
+        <v>0.003321145661175251</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.0001171391195384786</v>
+        <v>0.006465126760303974</v>
       </c>
       <c r="BA8" t="n">
-        <v>0.0003036791167687625</v>
+        <v>0.002006154274567962</v>
       </c>
       <c r="BB8" t="n">
-        <v>0.0002394227485638112</v>
+        <v>0.00818239152431488</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.0004409590910654515</v>
+        <v>0.009960505180060863</v>
       </c>
       <c r="BD8" t="n">
-        <v>8.745555533096194e-05</v>
+        <v>0.002771146595478058</v>
       </c>
       <c r="BE8" t="n">
-        <v>0.0002290533593622968</v>
+        <v>0.004792741965502501</v>
       </c>
       <c r="BF8" t="n">
-        <v>0.0006954864948056638</v>
+        <v>0.0009436208638362586</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.0001513559109298512</v>
+        <v>0.003296993905678391</v>
       </c>
       <c r="BH8" t="n">
-        <v>0.0009482624591328204</v>
+        <v>0.009526858106255531</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.0005075065419077873</v>
+        <v>0.00352198351174593</v>
       </c>
       <c r="BJ8" t="n">
-        <v>0.00056114187464118</v>
+        <v>0.0106604490429163</v>
       </c>
       <c r="BK8" t="n">
-        <v>0.0006578265456482768</v>
+        <v>0.007086274214088917</v>
       </c>
       <c r="BL8" t="n">
-        <v>7.191259646788239e-05</v>
+        <v>0.004442382603883743</v>
       </c>
       <c r="BM8" t="n">
-        <v>0.0006665069959126413</v>
+        <v>0.008950458839535713</v>
       </c>
       <c r="BN8" t="n">
-        <v>0.0002003390691243112</v>
+        <v>0.00141023495234549</v>
       </c>
       <c r="BO8" t="n">
-        <v>0.0007856163429096341</v>
+        <v>0.007333197165280581</v>
       </c>
       <c r="BP8" t="n">
-        <v>0.0003865773905999959</v>
+        <v>0.004550900775939226</v>
       </c>
       <c r="BQ8" t="n">
-        <v>2.550228782638442e-05</v>
+        <v>0.002642094157636166</v>
       </c>
       <c r="BR8" t="n">
-        <v>0.0004657131212297827</v>
+        <v>0.0007783606415614486</v>
       </c>
       <c r="BS8" t="n">
-        <v>0.0001369440142298117</v>
+        <v>0.002375628799200058</v>
       </c>
       <c r="BT8" t="n">
-        <v>0.0004129348089918494</v>
+        <v>0.004696514923125505</v>
       </c>
       <c r="BU8" t="n">
-        <v>0.001037159818224609</v>
+        <v>2.169352956116199e-05</v>
       </c>
       <c r="BV8" t="n">
-        <v>0.0004075681790709496</v>
+        <v>0.0132176335901022</v>
       </c>
       <c r="BW8" t="n">
-        <v>0.0002602887398097664</v>
+        <v>0.004181342199444771</v>
       </c>
       <c r="BX8" t="n">
-        <v>0.000150372798088938</v>
+        <v>0.005300384946167469</v>
       </c>
       <c r="BY8" t="n">
-        <v>0.0006753624184057117</v>
+        <v>0.003360384842380881</v>
       </c>
       <c r="BZ8" t="n">
-        <v>0.0002227646473329514</v>
+        <v>0.001534599810838699</v>
       </c>
       <c r="CA8" t="n">
-        <v>5.933715146966279e-05</v>
+        <v>0.002666404005140066</v>
       </c>
       <c r="CB8" t="n">
-        <v>0.0004225323791615665</v>
+        <v>0.002842004410922527</v>
       </c>
       <c r="CC8" t="n">
-        <v>0.0001836662122514099</v>
+        <v>0.007242084480822086</v>
       </c>
       <c r="CD8" t="n">
-        <v>0.0006086401408538222</v>
+        <v>0.006794131826609373</v>
       </c>
       <c r="CE8" t="n">
-        <v>0.0003418497217353433</v>
+        <v>0.004428114276379347</v>
       </c>
       <c r="CF8" t="n">
-        <v>5.838623474119231e-05</v>
+        <v>0.005105851218104362</v>
       </c>
       <c r="CG8" t="n">
-        <v>9.481326560489833e-05</v>
+        <v>0.004985544364899397</v>
       </c>
       <c r="CH8" t="n">
-        <v>0.0002894748758990318</v>
+        <v>0.003571821143850684</v>
       </c>
       <c r="CI8" t="n">
-        <v>9.95527661871165e-05</v>
+        <v>0.005614433437585831</v>
       </c>
       <c r="CJ8" t="n">
-        <v>8.316496678162366e-05</v>
+        <v>0.001398909371346235</v>
       </c>
       <c r="CK8" t="n">
-        <v>6.051687159924768e-05</v>
+        <v>0.0002751848078332841</v>
       </c>
       <c r="CL8" t="n">
-        <v>0.0002937695535365492</v>
+        <v>0.004888910800218582</v>
       </c>
       <c r="CM8" t="n">
-        <v>0.0003084793861489743</v>
+        <v>0.005192727316170931</v>
       </c>
       <c r="CN8" t="n">
-        <v>0.0005174381658434868</v>
+        <v>0.003909334074705839</v>
       </c>
       <c r="CO8" t="n">
-        <v>0.0007328217034228146</v>
+        <v>0.001683442038483918</v>
       </c>
       <c r="CP8" t="n">
-        <v>0.0006906106136739254</v>
+        <v>0.004034962505102158</v>
       </c>
       <c r="CQ8" t="n">
-        <v>0.001111489487811923</v>
+        <v>0.0006287440191954374</v>
       </c>
       <c r="CR8" t="n">
-        <v>0.001274315291084349</v>
+        <v>0.003981478977948427</v>
       </c>
       <c r="CS8" t="n">
-        <v>0.0002986014005728066</v>
+        <v>0.01443734113126993</v>
       </c>
       <c r="CT8" t="n">
-        <v>0.000854996033012867</v>
+        <v>0.01051489263772964</v>
       </c>
       <c r="CU8" t="n">
-        <v>0.0001852476998465136</v>
+        <v>0.005015710834413767</v>
       </c>
       <c r="CV8" t="n">
-        <v>0.0005520673585124314</v>
+        <v>0.005775172729045153</v>
       </c>
       <c r="CW8" t="n">
-        <v>0.0004161721735727042</v>
+        <v>0.003661579685285687</v>
       </c>
       <c r="CX8" t="n">
-        <v>8.099930710159242e-05</v>
+        <v>0.004528802819550037</v>
       </c>
       <c r="CY8" t="n">
-        <v>0.0001806259824661538</v>
+        <v>0.007011994253844023</v>
       </c>
       <c r="CZ8" t="n">
-        <v>0.0004480534116737545</v>
+        <v>0.0025934805162251</v>
       </c>
       <c r="DA8" t="n">
-        <v>0.0001462379732402042</v>
+        <v>0.006379999220371246</v>
       </c>
       <c r="DB8" t="n">
-        <v>0.0001576846843818203</v>
+        <v>0.0003204603563062847</v>
       </c>
       <c r="DC8" t="n">
-        <v>2.31998274102807e-06</v>
+        <v>0.0005057580419816077</v>
       </c>
       <c r="DD8" t="n">
-        <v>0.0001842810015659779</v>
+        <v>0.002146865706890821</v>
       </c>
       <c r="DE8" t="n">
-        <v>0.001002969453111291</v>
+        <v>0.00131968769710511</v>
       </c>
       <c r="DF8" t="n">
-        <v>0.002545846626162529</v>
+        <v>0.001013191300444305</v>
       </c>
       <c r="DG8" t="n">
-        <v>0.00140006747096777</v>
+        <v>0.01126973889768124</v>
       </c>
       <c r="DH8" t="n">
-        <v>0.0004449775442481041</v>
+        <v>0.01974229887127876</v>
       </c>
       <c r="DI8" t="n">
-        <v>0.001341426162980497</v>
+        <v>0.007497901562601328</v>
       </c>
       <c r="DJ8" t="n">
-        <v>0.0007187639130279422</v>
+        <v>0.01227464620023966</v>
       </c>
       <c r="DK8" t="n">
-        <v>0.0005417533684521914</v>
+        <v>0.008272637613117695</v>
       </c>
       <c r="DL8" t="n">
-        <v>5.948468606220558e-05</v>
+        <v>0.005594545975327492</v>
       </c>
       <c r="DM8" t="n">
-        <v>7.815602293703705e-05</v>
+        <v>0.0001113913676817901</v>
       </c>
       <c r="DN8" t="n">
-        <v>0.000868386123329401</v>
+        <v>0.005850518122315407</v>
       </c>
       <c r="DO8" t="n">
-        <v>0.0003995330189354718</v>
+        <v>0.009490683674812317</v>
       </c>
       <c r="DP8" t="n">
-        <v>0.0004591370816342533</v>
+        <v>0.005588224157691002</v>
       </c>
       <c r="DQ8" t="n">
-        <v>0.001145320944488049</v>
+        <v>0.01159769296646118</v>
       </c>
       <c r="DR8" t="n">
-        <v>0.001137256971560419</v>
+        <v>0.006571676582098007</v>
       </c>
       <c r="DS8" t="n">
-        <v>0.0008458945085294545</v>
+        <v>0.003465031273663044</v>
       </c>
       <c r="DT8" t="n">
-        <v>0.0007271075155586004</v>
+        <v>0.004491840954869986</v>
       </c>
       <c r="DU8" t="n">
-        <v>0.0001201651903102174</v>
+        <v>0.00109524093568325</v>
       </c>
       <c r="DV8" t="n">
-        <v>0.0002769425918813795</v>
+        <v>0.01103271264582872</v>
       </c>
       <c r="DW8" t="n">
-        <v>5.079020047560334e-05</v>
+        <v>0.009269565343856812</v>
       </c>
       <c r="DX8" t="n">
-        <v>0.000653318886179477</v>
+        <v>0.01159395836293697</v>
       </c>
       <c r="DY8" t="n">
-        <v>0.0005516382516361773</v>
+        <v>0.01420215796679258</v>
       </c>
       <c r="DZ8" t="n">
-        <v>0.0003339448885526508</v>
+        <v>0.007835561409592628</v>
       </c>
       <c r="EA8" t="n">
-        <v>5.233820411376655e-05</v>
+        <v>0.002876768354326487</v>
       </c>
       <c r="EB8" t="n">
-        <v>0.0002568043419159949</v>
+        <v>0.001049205311574042</v>
       </c>
       <c r="EC8" t="n">
-        <v>4.1953768231906e-05</v>
+        <v>0.004599176812916994</v>
       </c>
       <c r="ED8" t="n">
-        <v>0.0006161595811136067</v>
+        <v>0.004389393143355846</v>
       </c>
       <c r="EE8" t="n">
-        <v>0.000146799604408443</v>
+        <v>0.004991114605218172</v>
       </c>
       <c r="EF8" t="n">
-        <v>0.0003652361629065126</v>
+        <v>0.002401701873168349</v>
       </c>
       <c r="EG8" t="n">
-        <v>0.0005557324038818479</v>
+        <v>0.003590974258258939</v>
       </c>
       <c r="EH8" t="n">
-        <v>0.0005039602983742952</v>
+        <v>0.0006647080881521106</v>
       </c>
       <c r="EI8" t="n">
-        <v>0.0005325144156813622</v>
+        <v>0.004459692165255547</v>
       </c>
       <c r="EJ8" t="n">
-        <v>0.0009159768815152347</v>
+        <v>0.0005816497141495347</v>
       </c>
       <c r="EK8" t="n">
-        <v>2.480692455719691e-05</v>
+        <v>0.00465435441583395</v>
       </c>
       <c r="EL8" t="n">
-        <v>8.304389484692365e-05</v>
+        <v>6.327642768155783e-05</v>
       </c>
       <c r="EM8" t="n">
-        <v>7.736317638773471e-05</v>
+        <v>0.003337829606607556</v>
       </c>
       <c r="EN8" t="n">
-        <v>0.0003412022779230028</v>
+        <v>0.0003882533055730164</v>
       </c>
       <c r="EO8" t="n">
-        <v>0.0004618831444531679</v>
+        <v>0.00223803031258285</v>
       </c>
       <c r="EP8" t="n">
-        <v>0.0009258118807338178</v>
+        <v>0.0002125834580510855</v>
       </c>
       <c r="EQ8" t="n">
-        <v>3.639994247350842e-05</v>
+        <v>0.009180047549307346</v>
       </c>
       <c r="ER8" t="n">
-        <v>0.0002153911627829075</v>
+        <v>0.006285417359322309</v>
       </c>
       <c r="ES8" t="n">
-        <v>0.0005413506296463311</v>
+        <v>0.002871190896257758</v>
       </c>
       <c r="ET8" t="n">
-        <v>0.0007860187906771898</v>
+        <v>0.006691488903015852</v>
       </c>
       <c r="EU8" t="n">
-        <v>0.0004031260032206774</v>
+        <v>0.00195443700067699</v>
       </c>
       <c r="EV8" t="n">
-        <v>0.0004922443185932934</v>
+        <v>0.0152780395001173</v>
       </c>
       <c r="EW8" t="n">
-        <v>0.000365860149031505</v>
+        <v>0.003738916711881757</v>
       </c>
       <c r="EX8" t="n">
-        <v>0.0004860131884925067</v>
+        <v>0.00677867978811264</v>
       </c>
       <c r="EY8" t="n">
-        <v>0.0004264720482751727</v>
+        <v>0.002986616222187877</v>
       </c>
       <c r="EZ8" t="n">
-        <v>0.0001484345993958414</v>
+        <v>0.004836518317461014</v>
       </c>
       <c r="FA8" t="n">
-        <v>3.147594179608859e-05</v>
+        <v>0.006138167344033718</v>
       </c>
       <c r="FB8" t="n">
-        <v>0.0004662160354200751</v>
+        <v>0.003618367714807391</v>
       </c>
       <c r="FC8" t="n">
-        <v>9.029537613969296e-05</v>
+        <v>0.004290945362299681</v>
       </c>
       <c r="FD8" t="n">
-        <v>0.0001420782500645146</v>
+        <v>0.002733702771365643</v>
       </c>
       <c r="FE8" t="n">
-        <v>4.22154953412246e-05</v>
+        <v>0.001065588789060712</v>
       </c>
       <c r="FF8" t="n">
-        <v>0.0001607079320820048</v>
+        <v>0.003316140966489911</v>
       </c>
       <c r="FG8" t="n">
-        <v>0.0003395702224224806</v>
+        <v>0.0001980408851522952</v>
       </c>
       <c r="FH8" t="n">
-        <v>0.0009476904524490237</v>
+        <v>0.009973806329071522</v>
       </c>
       <c r="FI8" t="n">
-        <v>9.390701598022133e-05</v>
+        <v>0.006491624284535646</v>
       </c>
       <c r="FJ8" t="n">
-        <v>0.0004291797231417149</v>
+        <v>0.002714168513193727</v>
       </c>
       <c r="FK8" t="n">
-        <v>0.000586945447139442</v>
+        <v>0.003876635106280446</v>
       </c>
       <c r="FL8" t="n">
-        <v>0.0003710965684149414</v>
+        <v>0.001391859957948327</v>
       </c>
       <c r="FM8" t="n">
-        <v>0.0005871989415027201</v>
+        <v>0.002812446560710669</v>
       </c>
       <c r="FN8" t="n">
-        <v>0.0005324471276253462</v>
+        <v>0.006308343261480331</v>
       </c>
       <c r="FO8" t="n">
-        <v>0.000325511529808864</v>
+        <v>0.001924470532685518</v>
       </c>
       <c r="FP8" t="n">
-        <v>0.0001601876283530146</v>
+        <v>0.01271905563771725</v>
       </c>
       <c r="FQ8" t="n">
-        <v>9.167338430415839e-05</v>
+        <v>0.004049871116876602</v>
       </c>
       <c r="FR8" t="n">
-        <v>0.0007605799473822117</v>
+        <v>0.001689332304522395</v>
       </c>
       <c r="FS8" t="n">
-        <v>0.0006511223618872464</v>
+        <v>0.0007006381638348103</v>
       </c>
       <c r="FT8" t="n">
-        <v>0.0009725459385663271</v>
+        <v>0.0002517752000130713</v>
       </c>
       <c r="FU8" t="n">
-        <v>0.0004330138035584241</v>
+        <v>0.001561257988214493</v>
       </c>
       <c r="FV8" t="n">
-        <v>0.0006312088225968182</v>
+        <v>0.0158772524446249</v>
       </c>
       <c r="FW8" t="n">
-        <v>0.0008772213477641344</v>
+        <v>0.003942806273698807</v>
       </c>
       <c r="FX8" t="n">
-        <v>0.0006056017009541392</v>
+        <v>0.001092614838853478</v>
       </c>
       <c r="FY8" t="n">
-        <v>0.0006295678322203457</v>
+        <v>0.00279266363941133</v>
       </c>
       <c r="FZ8" t="n">
-        <v>0.0002065939479507506</v>
+        <v>0.0001231394708156586</v>
       </c>
       <c r="GA8" t="n">
-        <v>0.0004483581287786365</v>
+        <v>0.005784808192402124</v>
       </c>
       <c r="GB8" t="n">
-        <v>0.0006127174128778279</v>
+        <v>0.001576360315084457</v>
       </c>
       <c r="GC8" t="n">
-        <v>5.042618795414455e-05</v>
+        <v>0.0001717848208500072</v>
       </c>
       <c r="GD8" t="n">
-        <v>6.908377690706402e-05</v>
+        <v>0.006356374360620975</v>
       </c>
       <c r="GE8" t="n">
-        <v>0.0004744374309666455</v>
+        <v>0.02197546698153019</v>
       </c>
       <c r="GF8" t="n">
-        <v>0.0004545696428976953</v>
+        <v>0.001538099022582173</v>
       </c>
       <c r="GG8" t="n">
-        <v>8.305460505653173e-05</v>
+        <v>0.008945867419242859</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2.534697962630617e-08</v>
+        <v>8.52813486496018e-10</v>
       </c>
       <c r="B9" t="n">
-        <v>6.00815610596328e-08</v>
+        <v>7.580155392261645e-10</v>
       </c>
       <c r="C9" t="n">
-        <v>9.858194971457124e-08</v>
+        <v>6.970930499505812e-10</v>
       </c>
       <c r="D9" t="n">
-        <v>1.070348275789001e-06</v>
+        <v>1.987148667836891e-09</v>
       </c>
       <c r="E9" t="n">
-        <v>1.002350245471462e-06</v>
+        <v>7.9733614155586e-10</v>
       </c>
       <c r="F9" t="n">
-        <v>1.995680349864415e-07</v>
+        <v>5.286581727936834e-10</v>
       </c>
       <c r="G9" t="n">
-        <v>4.476544859244314e-07</v>
+        <v>5.027593341644376e-10</v>
       </c>
       <c r="H9" t="n">
-        <v>2.940865442724316e-06</v>
+        <v>7.565865711711695e-10</v>
       </c>
       <c r="I9" t="n">
-        <v>7.575955152105962e-08</v>
+        <v>1.540259864096782e-10</v>
       </c>
       <c r="J9" t="n">
-        <v>5.918289502915286e-08</v>
+        <v>9.442282511429312e-10</v>
       </c>
       <c r="K9" t="n">
-        <v>1.204092768603005e-06</v>
+        <v>1.337246757771027e-09</v>
       </c>
       <c r="L9" t="n">
-        <v>1.381808374389948e-07</v>
+        <v>8.009147789422855e-10</v>
       </c>
       <c r="M9" t="n">
-        <v>8.945430067797133e-07</v>
+        <v>1.364591772912149e-09</v>
       </c>
       <c r="N9" t="n">
-        <v>1.116883140639402e-06</v>
+        <v>3.178407537163253e-11</v>
       </c>
       <c r="O9" t="n">
-        <v>3.009848228430201e-07</v>
+        <v>1.703779450856757e-09</v>
       </c>
       <c r="P9" t="n">
-        <v>7.91367199326487e-07</v>
+        <v>6.075143166306418e-11</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.296691147625097e-06</v>
+        <v>1.597836751798809e-09</v>
       </c>
       <c r="R9" t="n">
-        <v>1.037866468323045e-07</v>
+        <v>1.027625762262119e-09</v>
       </c>
       <c r="S9" t="n">
-        <v>4.188907496427419e-07</v>
+        <v>4.415119103651222e-10</v>
       </c>
       <c r="T9" t="n">
-        <v>2.438933677240129e-07</v>
+        <v>2.351394912114557e-10</v>
       </c>
       <c r="U9" t="n">
-        <v>2.746031100286928e-07</v>
+        <v>3.535136419707818e-11</v>
       </c>
       <c r="V9" t="n">
-        <v>2.424669958145387e-07</v>
+        <v>1.371233682156969e-10</v>
       </c>
       <c r="W9" t="n">
-        <v>1.041874497786921e-06</v>
+        <v>7.58911489207037e-10</v>
       </c>
       <c r="X9" t="n">
-        <v>1.805251912401218e-07</v>
+        <v>1.498192903071072e-09</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.000729691393644e-07</v>
+        <v>9.518983379308565e-10</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.64905054589326e-06</v>
+        <v>7.072391561280256e-10</v>
       </c>
       <c r="AA9" t="n">
-        <v>4.013417367332295e-07</v>
+        <v>4.612406012682868e-10</v>
       </c>
       <c r="AB9" t="n">
-        <v>1.016465716929815e-06</v>
+        <v>4.18220902353994e-10</v>
       </c>
       <c r="AC9" t="n">
-        <v>3.260411745031888e-07</v>
+        <v>2.775085716777426e-10</v>
       </c>
       <c r="AD9" t="n">
-        <v>1.862961767074012e-07</v>
+        <v>7.232214827013195e-10</v>
       </c>
       <c r="AE9" t="n">
-        <v>9.264611300352499e-10</v>
+        <v>6.364477833642468e-10</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.819940334575222e-07</v>
+        <v>6.561707843744102e-10</v>
       </c>
       <c r="AG9" t="n">
-        <v>2.365666489367868e-07</v>
+        <v>1.127855586702253e-10</v>
       </c>
       <c r="AH9" t="n">
-        <v>1.070379653356213e-06</v>
+        <v>3.763445111104602e-10</v>
       </c>
       <c r="AI9" t="n">
-        <v>6.016974793965346e-07</v>
+        <v>6.713365419130923e-10</v>
       </c>
       <c r="AJ9" t="n">
-        <v>2.051867227237381e-07</v>
+        <v>6.687575493380393e-10</v>
       </c>
       <c r="AK9" t="n">
-        <v>1.413939259009567e-07</v>
+        <v>5.426248339546191e-10</v>
       </c>
       <c r="AL9" t="n">
-        <v>3.232118217511015e-07</v>
+        <v>1.683181372058584e-09</v>
       </c>
       <c r="AM9" t="n">
-        <v>7.91417846812692e-08</v>
+        <v>4.311696832903777e-10</v>
       </c>
       <c r="AN9" t="n">
-        <v>2.002743713092059e-07</v>
+        <v>2.305935997704012e-11</v>
       </c>
       <c r="AO9" t="n">
-        <v>1.246354372597125e-06</v>
+        <v>1.405129068654531e-10</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.794218036366146e-07</v>
+        <v>3.948875393344764e-10</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.518559997748525e-07</v>
+        <v>8.772205184470749e-12</v>
       </c>
       <c r="AR9" t="n">
-        <v>1.184966720302327e-07</v>
+        <v>5.431755600859844e-10</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.144892181059731e-07</v>
+        <v>8.862122702346653e-10</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.481432718719589e-07</v>
+        <v>7.230047671669126e-10</v>
       </c>
       <c r="AU9" t="n">
-        <v>9.66140987657127e-07</v>
+        <v>1.097099522340272e-09</v>
       </c>
       <c r="AV9" t="n">
-        <v>8.296737519231101e-09</v>
+        <v>7.686010716767555e-10</v>
       </c>
       <c r="AW9" t="n">
-        <v>2.237294296492109e-07</v>
+        <v>1.303278263087293e-09</v>
       </c>
       <c r="AX9" t="n">
-        <v>1.923067571851789e-07</v>
+        <v>2.098130003069798e-10</v>
       </c>
       <c r="AY9" t="n">
-        <v>1.358896781766816e-07</v>
+        <v>1.917967118458819e-09</v>
       </c>
       <c r="AZ9" t="n">
-        <v>3.822486291937821e-07</v>
+        <v>3.109579260751616e-11</v>
       </c>
       <c r="BA9" t="n">
-        <v>1.671550649007258e-06</v>
+        <v>5.155447735383234e-10</v>
       </c>
       <c r="BB9" t="n">
-        <v>7.618098152306629e-08</v>
+        <v>1.012510963960267e-09</v>
       </c>
       <c r="BC9" t="n">
-        <v>1.877392605820205e-07</v>
+        <v>9.378513521340892e-10</v>
       </c>
       <c r="BD9" t="n">
-        <v>2.877089286812406e-07</v>
+        <v>9.307291604088164e-10</v>
       </c>
       <c r="BE9" t="n">
-        <v>1.899322228382516e-07</v>
+        <v>3.917295376965058e-10</v>
       </c>
       <c r="BF9" t="n">
-        <v>6.231802558431809e-07</v>
+        <v>5.865992136477871e-10</v>
       </c>
       <c r="BG9" t="n">
-        <v>8.488001412843005e-07</v>
+        <v>2.004571619806939e-09</v>
       </c>
       <c r="BH9" t="n">
-        <v>3.330767412990099e-07</v>
+        <v>1.849868258574361e-09</v>
       </c>
       <c r="BI9" t="n">
-        <v>9.378869663123623e-07</v>
+        <v>1.73979386453027e-10</v>
       </c>
       <c r="BJ9" t="n">
-        <v>7.877515599830076e-07</v>
+        <v>5.185627482973132e-10</v>
       </c>
       <c r="BK9" t="n">
-        <v>1.7658658180153e-07</v>
+        <v>8.963300102138305e-10</v>
       </c>
       <c r="BL9" t="n">
-        <v>3.404934432182927e-07</v>
+        <v>1.325364817894581e-09</v>
       </c>
       <c r="BM9" t="n">
-        <v>5.420961315394379e-07</v>
+        <v>1.667702087537748e-09</v>
       </c>
       <c r="BN9" t="n">
-        <v>1.715406661162433e-08</v>
+        <v>2.670829668538488e-10</v>
       </c>
       <c r="BO9" t="n">
-        <v>3.05982410964134e-07</v>
+        <v>4.538876496873456e-10</v>
       </c>
       <c r="BP9" t="n">
-        <v>2.507722456357442e-07</v>
+        <v>4.239861239874188e-10</v>
       </c>
       <c r="BQ9" t="n">
-        <v>4.426131852142134e-07</v>
+        <v>2.720533798239444e-10</v>
       </c>
       <c r="BR9" t="n">
-        <v>8.034878646867583e-07</v>
+        <v>2.962745604406791e-10</v>
       </c>
       <c r="BS9" t="n">
-        <v>3.73865219671643e-07</v>
+        <v>1.636659141546204e-10</v>
       </c>
       <c r="BT9" t="n">
-        <v>1.76616367753013e-07</v>
+        <v>9.851852666997729e-11</v>
       </c>
       <c r="BU9" t="n">
-        <v>7.092148734955117e-07</v>
+        <v>1.317469577877262e-09</v>
       </c>
       <c r="BV9" t="n">
-        <v>1.447984914193512e-07</v>
+        <v>1.853043968269574e-10</v>
       </c>
       <c r="BW9" t="n">
-        <v>1.546778065630861e-07</v>
+        <v>5.746743636514395e-10</v>
       </c>
       <c r="BX9" t="n">
-        <v>1.362489001621725e-07</v>
+        <v>8.628225911522236e-11</v>
       </c>
       <c r="BY9" t="n">
-        <v>1.618146114878982e-07</v>
+        <v>2.11649631154387e-09</v>
       </c>
       <c r="BZ9" t="n">
-        <v>4.974353942088783e-07</v>
+        <v>6.075260294835516e-10</v>
       </c>
       <c r="CA9" t="n">
-        <v>3.186929404819239e-07</v>
+        <v>1.39982747615619e-10</v>
       </c>
       <c r="CB9" t="n">
-        <v>1.272347958547471e-06</v>
+        <v>3.87460008521856e-10</v>
       </c>
       <c r="CC9" t="n">
-        <v>1.317948203904962e-07</v>
+        <v>1.994440029795541e-11</v>
       </c>
       <c r="CD9" t="n">
-        <v>2.408223451766389e-07</v>
+        <v>8.296869302704124e-10</v>
       </c>
       <c r="CE9" t="n">
-        <v>6.616154735183954e-08</v>
+        <v>1.616266287474133e-10</v>
       </c>
       <c r="CF9" t="n">
-        <v>1.70983405212155e-08</v>
+        <v>1.196697185790185e-10</v>
       </c>
       <c r="CG9" t="n">
-        <v>7.071734842156729e-08</v>
+        <v>6.105245753396105e-10</v>
       </c>
       <c r="CH9" t="n">
-        <v>2.819947155785485e-07</v>
+        <v>2.118842601372961e-10</v>
       </c>
       <c r="CI9" t="n">
-        <v>1.928610231516359e-07</v>
+        <v>3.226715838966498e-10</v>
       </c>
       <c r="CJ9" t="n">
-        <v>2.8496407367129e-07</v>
+        <v>1.467968524515584e-10</v>
       </c>
       <c r="CK9" t="n">
-        <v>5.724351126445981e-07</v>
+        <v>2.476528704331571e-10</v>
       </c>
       <c r="CL9" t="n">
-        <v>6.238582272999338e-08</v>
+        <v>5.021594945420205e-11</v>
       </c>
       <c r="CM9" t="n">
-        <v>9.870252597465878e-07</v>
+        <v>4.802688247096398e-10</v>
       </c>
       <c r="CN9" t="n">
-        <v>5.835305216805864e-08</v>
+        <v>1.106596370092916e-09</v>
       </c>
       <c r="CO9" t="n">
-        <v>1.003509364494448e-08</v>
+        <v>8.496220949005817e-10</v>
       </c>
       <c r="CP9" t="n">
-        <v>2.975526172122045e-07</v>
+        <v>3.35712402321775e-10</v>
       </c>
       <c r="CQ9" t="n">
-        <v>2.419984639345785e-07</v>
+        <v>5.569186778409119e-10</v>
       </c>
       <c r="CR9" t="n">
-        <v>4.536467486104812e-07</v>
+        <v>3.746098431456346e-10</v>
       </c>
       <c r="CS9" t="n">
-        <v>7.374903816526057e-07</v>
+        <v>3.560636785415738e-10</v>
       </c>
       <c r="CT9" t="n">
-        <v>1.09270338555234e-07</v>
+        <v>9.058538363859725e-10</v>
       </c>
       <c r="CU9" t="n">
-        <v>1.70114759612261e-07</v>
+        <v>8.863067502140609e-10</v>
       </c>
       <c r="CV9" t="n">
-        <v>3.014885692209646e-07</v>
+        <v>8.567312415053152e-10</v>
       </c>
       <c r="CW9" t="n">
-        <v>3.929335434804671e-08</v>
+        <v>9.440557363626922e-11</v>
       </c>
       <c r="CX9" t="n">
-        <v>1.13292443870705e-07</v>
+        <v>7.649023775480046e-11</v>
       </c>
       <c r="CY9" t="n">
-        <v>2.469636761759375e-08</v>
+        <v>2.78304518319672e-10</v>
       </c>
       <c r="CZ9" t="n">
-        <v>4.24066911364207e-07</v>
+        <v>1.627070353449334e-11</v>
       </c>
       <c r="DA9" t="n">
-        <v>2.539228205478139e-07</v>
+        <v>2.466903625819583e-10</v>
       </c>
       <c r="DB9" t="n">
-        <v>2.293837155775691e-07</v>
+        <v>6.870695679062067e-11</v>
       </c>
       <c r="DC9" t="n">
-        <v>5.909470246479032e-07</v>
+        <v>1.891492795724758e-10</v>
       </c>
       <c r="DD9" t="n">
-        <v>3.306259444002535e-08</v>
+        <v>2.345635352618558e-10</v>
       </c>
       <c r="DE9" t="n">
-        <v>1.787619908100169e-06</v>
+        <v>4.873072501077047e-10</v>
       </c>
       <c r="DF9" t="n">
-        <v>1.244426130142529e-06</v>
+        <v>1.966114826501553e-09</v>
       </c>
       <c r="DG9" t="n">
-        <v>2.639873741827614e-07</v>
+        <v>9.888181384809513e-10</v>
       </c>
       <c r="DH9" t="n">
-        <v>4.850229515795945e-07</v>
+        <v>1.228647072970546e-09</v>
       </c>
       <c r="DI9" t="n">
-        <v>2.471775246704055e-07</v>
+        <v>9.720235727428417e-10</v>
       </c>
       <c r="DJ9" t="n">
-        <v>2.667412957180204e-07</v>
+        <v>1.209743194507951e-09</v>
       </c>
       <c r="DK9" t="n">
-        <v>4.161301490057667e-07</v>
+        <v>1.14541287565828e-09</v>
       </c>
       <c r="DL9" t="n">
-        <v>1.455434812669409e-07</v>
+        <v>3.335602072329635e-10</v>
       </c>
       <c r="DM9" t="n">
-        <v>8.784881799783761e-08</v>
+        <v>1.974397756399071e-09</v>
       </c>
       <c r="DN9" t="n">
-        <v>2.035919663967434e-07</v>
+        <v>1.189426668268823e-09</v>
       </c>
       <c r="DO9" t="n">
-        <v>4.225786653933028e-07</v>
+        <v>3.62671781495294e-10</v>
       </c>
       <c r="DP9" t="n">
-        <v>2.891516004410732e-08</v>
+        <v>1.243772640435736e-09</v>
       </c>
       <c r="DQ9" t="n">
-        <v>4.580674044518673e-07</v>
+        <v>1.067426147471906e-09</v>
       </c>
       <c r="DR9" t="n">
-        <v>3.743372190001537e-08</v>
+        <v>3.674061055392031e-10</v>
       </c>
       <c r="DS9" t="n">
-        <v>5.261485824803458e-08</v>
+        <v>4.484070892374348e-10</v>
       </c>
       <c r="DT9" t="n">
-        <v>7.829825108274235e-07</v>
+        <v>3.576123563941991e-10</v>
       </c>
       <c r="DU9" t="n">
-        <v>1.070889084076043e-07</v>
+        <v>4.091829652885792e-10</v>
       </c>
       <c r="DV9" t="n">
-        <v>1.093641799343459e-08</v>
+        <v>1.485283562807638e-10</v>
       </c>
       <c r="DW9" t="n">
-        <v>6.099034521866997e-08</v>
+        <v>6.490169512929356e-11</v>
       </c>
       <c r="DX9" t="n">
-        <v>9.639356335355842e-08</v>
+        <v>1.50920032027102e-09</v>
       </c>
       <c r="DY9" t="n">
-        <v>1.873637671678807e-07</v>
+        <v>3.339782894684618e-10</v>
       </c>
       <c r="DZ9" t="n">
-        <v>2.984849913900689e-07</v>
+        <v>4.341700887700028e-10</v>
       </c>
       <c r="EA9" t="n">
-        <v>1.32572537836495e-07</v>
+        <v>4.830452704496224e-10</v>
       </c>
       <c r="EB9" t="n">
-        <v>4.758007321470359e-07</v>
+        <v>1.372101210428411e-09</v>
       </c>
       <c r="EC9" t="n">
-        <v>5.546378645249206e-08</v>
+        <v>2.794965092700608e-10</v>
       </c>
       <c r="ED9" t="n">
-        <v>2.645682570801e-07</v>
+        <v>7.611926644557343e-10</v>
       </c>
       <c r="EE9" t="n">
-        <v>1.177435677846006e-07</v>
+        <v>7.211987673727549e-10</v>
       </c>
       <c r="EF9" t="n">
-        <v>9.692180356069002e-07</v>
+        <v>1.028689217141832e-10</v>
       </c>
       <c r="EG9" t="n">
-        <v>1.44884225505848e-07</v>
+        <v>6.071356195569422e-10</v>
       </c>
       <c r="EH9" t="n">
-        <v>6.158487053653516e-09</v>
+        <v>9.057213312679835e-12</v>
       </c>
       <c r="EI9" t="n">
-        <v>4.298664180168998e-07</v>
+        <v>1.349680589513014e-09</v>
       </c>
       <c r="EJ9" t="n">
-        <v>8.895553094134812e-08</v>
+        <v>2.038777480173337e-10</v>
       </c>
       <c r="EK9" t="n">
-        <v>4.056292652876436e-07</v>
+        <v>9.757277208422011e-10</v>
       </c>
       <c r="EL9" t="n">
-        <v>5.046890549920136e-08</v>
+        <v>2.044281965929429e-10</v>
       </c>
       <c r="EM9" t="n">
-        <v>8.037162047003221e-07</v>
+        <v>6.660814122483316e-10</v>
       </c>
       <c r="EN9" t="n">
-        <v>1.124507846839151e-07</v>
+        <v>6.829219481585547e-12</v>
       </c>
       <c r="EO9" t="n">
-        <v>1.300089991218556e-07</v>
+        <v>8.553360242302688e-10</v>
       </c>
       <c r="EP9" t="n">
-        <v>1.480078140048136e-07</v>
+        <v>2.655695108266798e-10</v>
       </c>
       <c r="EQ9" t="n">
-        <v>1.103401991997544e-08</v>
+        <v>5.828584281886151e-10</v>
       </c>
       <c r="ER9" t="n">
-        <v>1.560452886906205e-07</v>
+        <v>2.426217005080389e-10</v>
       </c>
       <c r="ES9" t="n">
-        <v>6.202433269208996e-07</v>
+        <v>5.847533013358941e-10</v>
       </c>
       <c r="ET9" t="n">
-        <v>2.599175275008747e-07</v>
+        <v>6.479166647643808e-10</v>
       </c>
       <c r="EU9" t="n">
-        <v>1.580799846578884e-07</v>
+        <v>6.639829241983364e-10</v>
       </c>
       <c r="EV9" t="n">
-        <v>2.360715427585092e-07</v>
+        <v>7.675270419227331e-10</v>
       </c>
       <c r="EW9" t="n">
-        <v>2.315897233984288e-07</v>
+        <v>5.82139003668658e-10</v>
       </c>
       <c r="EX9" t="n">
-        <v>3.39503998247892e-07</v>
+        <v>8.646892091235259e-10</v>
       </c>
       <c r="EY9" t="n">
-        <v>1.114464538432003e-07</v>
+        <v>1.79546516543283e-10</v>
       </c>
       <c r="EZ9" t="n">
-        <v>1.399376117205975e-07</v>
+        <v>7.76524677892354e-12</v>
       </c>
       <c r="FA9" t="n">
-        <v>3.277201621187942e-09</v>
+        <v>6.520975981416655e-10</v>
       </c>
       <c r="FB9" t="n">
-        <v>3.878162999626511e-07</v>
+        <v>2.404650090159777e-10</v>
       </c>
       <c r="FC9" t="n">
-        <v>3.049546535294212e-07</v>
+        <v>1.055466616883827e-10</v>
       </c>
       <c r="FD9" t="n">
-        <v>2.278559065871377e-07</v>
+        <v>7.662460943524962e-12</v>
       </c>
       <c r="FE9" t="n">
-        <v>6.303250188466336e-07</v>
+        <v>8.544980001357061e-11</v>
       </c>
       <c r="FF9" t="n">
-        <v>4.918560492228607e-08</v>
+        <v>1.272170702115716e-10</v>
       </c>
       <c r="FG9" t="n">
-        <v>1.629686607884651e-07</v>
+        <v>4.392254338014823e-10</v>
       </c>
       <c r="FH9" t="n">
-        <v>2.765980866570317e-07</v>
+        <v>1.300671126358566e-09</v>
       </c>
       <c r="FI9" t="n">
-        <v>1.011444936693806e-07</v>
+        <v>7.577736216290987e-10</v>
       </c>
       <c r="FJ9" t="n">
-        <v>2.652393504831707e-07</v>
+        <v>7.117524347677318e-10</v>
       </c>
       <c r="FK9" t="n">
-        <v>2.061069892533851e-07</v>
+        <v>7.316393602074811e-10</v>
       </c>
       <c r="FL9" t="n">
-        <v>4.757896761020675e-07</v>
+        <v>1.342828348516178e-10</v>
       </c>
       <c r="FM9" t="n">
-        <v>2.369198455198784e-07</v>
+        <v>1.544085970195397e-10</v>
       </c>
       <c r="FN9" t="n">
-        <v>2.16123623886233e-07</v>
+        <v>4.085690952226884e-10</v>
       </c>
       <c r="FO9" t="n">
-        <v>8.523701922058535e-08</v>
+        <v>7.321245693026057e-11</v>
       </c>
       <c r="FP9" t="n">
-        <v>6.862979944344261e-07</v>
+        <v>2.216238303986984e-09</v>
       </c>
       <c r="FQ9" t="n">
-        <v>6.923658020241419e-07</v>
+        <v>6.297683485811945e-10</v>
       </c>
       <c r="FR9" t="n">
-        <v>2.035191783988921e-07</v>
+        <v>1.2644199021139e-09</v>
       </c>
       <c r="FS9" t="n">
-        <v>4.020345727440144e-07</v>
+        <v>3.136973458772729e-10</v>
       </c>
       <c r="FT9" t="n">
-        <v>6.349309700226513e-08</v>
+        <v>5.654900436802279e-10</v>
       </c>
       <c r="FU9" t="n">
-        <v>1.101717330698193e-07</v>
+        <v>5.371347464033782e-11</v>
       </c>
       <c r="FV9" t="n">
-        <v>6.020551950314257e-07</v>
+        <v>2.083401229313608e-09</v>
       </c>
       <c r="FW9" t="n">
-        <v>6.469720119639533e-07</v>
+        <v>1.253787740296275e-09</v>
       </c>
       <c r="FX9" t="n">
-        <v>1.941654090842349e-07</v>
+        <v>2.015328737225985e-10</v>
       </c>
       <c r="FY9" t="n">
-        <v>5.370961844164412e-07</v>
+        <v>1.729352883117485e-09</v>
       </c>
       <c r="FZ9" t="n">
-        <v>2.409753960819216e-07</v>
+        <v>1.800119359129937e-10</v>
       </c>
       <c r="GA9" t="n">
-        <v>4.584846635680151e-08</v>
+        <v>1.065425192514624e-09</v>
       </c>
       <c r="GB9" t="n">
-        <v>1.021661333311386e-07</v>
+        <v>8.996794420568222e-10</v>
       </c>
       <c r="GC9" t="n">
-        <v>1.016446447010821e-07</v>
+        <v>1.102920976769894e-09</v>
       </c>
       <c r="GD9" t="n">
-        <v>3.307969791421783e-07</v>
+        <v>8.560094300058552e-10</v>
       </c>
       <c r="GE9" t="n">
-        <v>6.719081824257955e-08</v>
+        <v>1.20377707801822e-09</v>
       </c>
       <c r="GF9" t="n">
-        <v>4.196321015115245e-07</v>
+        <v>1.164819796173333e-09</v>
       </c>
       <c r="GG9" t="n">
-        <v>2.252168940231059e-07</v>
+        <v>5.944491010545505e-10</v>
       </c>
     </row>
     <row r="10">
